--- a/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.80150117477639</v>
+        <v>20.80150117477637</v>
       </c>
       <c r="C2">
-        <v>16.6681782739718</v>
+        <v>16.66817827397172</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.175028495234951</v>
+        <v>9.1750284952351</v>
       </c>
       <c r="F2">
-        <v>37.2939994719915</v>
+        <v>37.29399947199145</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>26.86976592608245</v>
       </c>
       <c r="I2">
-        <v>11.88898126468676</v>
+        <v>11.88898126468683</v>
       </c>
       <c r="J2">
-        <v>19.06117547280169</v>
+        <v>19.06117547280166</v>
       </c>
       <c r="K2">
-        <v>13.08215071946778</v>
+        <v>13.08215071946787</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>19.30598049452145</v>
       </c>
       <c r="C3">
-        <v>15.44256473713827</v>
+        <v>15.44256473713842</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.616389690170157</v>
+        <v>8.616389690170212</v>
       </c>
       <c r="F3">
-        <v>34.85986694953848</v>
+        <v>34.85986694953844</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.77229898161488</v>
+        <v>25.77229898161479</v>
       </c>
       <c r="I3">
-        <v>11.69628671796462</v>
+        <v>11.69628671796457</v>
       </c>
       <c r="J3">
-        <v>17.70644732538926</v>
+        <v>17.70644732538932</v>
       </c>
       <c r="K3">
-        <v>12.21800983075772</v>
+        <v>12.21800983075778</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.3426169844717</v>
+        <v>18.34261698447176</v>
       </c>
       <c r="C4">
-        <v>14.6555025031664</v>
+        <v>14.65550250316633</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.257055518943231</v>
+        <v>8.257055518943208</v>
       </c>
       <c r="F4">
-        <v>33.31755979127142</v>
+        <v>33.31755979127139</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>25.10500217906118</v>
+        <v>25.10500217906106</v>
       </c>
       <c r="I4">
-        <v>11.58770925739273</v>
+        <v>11.58770925739272</v>
       </c>
       <c r="J4">
-        <v>16.83457995239578</v>
+        <v>16.83457995239579</v>
       </c>
       <c r="K4">
-        <v>11.66246202731031</v>
+        <v>11.66246202731026</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.93845961744989</v>
+        <v>17.9384596174499</v>
       </c>
       <c r="C5">
-        <v>14.32586422644977</v>
+        <v>14.32586422644984</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.106495795069554</v>
+        <v>8.106495795069488</v>
       </c>
       <c r="F5">
         <v>32.67724105728055</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24.83481005864393</v>
+        <v>24.83481005864398</v>
       </c>
       <c r="I5">
-        <v>11.54575473776301</v>
+        <v>11.54575473776305</v>
       </c>
       <c r="J5">
-        <v>16.46899279659608</v>
+        <v>16.46899279659612</v>
       </c>
       <c r="K5">
-        <v>11.42970240665632</v>
+        <v>11.42970240665627</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87064367900664</v>
+        <v>17.87064367900653</v>
       </c>
       <c r="C6">
         <v>14.27058414543857</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.081245746152407</v>
+        <v>8.081245746152414</v>
       </c>
       <c r="F6">
         <v>32.57021128659267</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>24.79005311512643</v>
+        <v>24.79005311512654</v>
       </c>
       <c r="I6">
-        <v>11.5389221677247</v>
+        <v>11.53892216772477</v>
       </c>
       <c r="J6">
-        <v>16.40765945518158</v>
+        <v>16.40765945518152</v>
       </c>
       <c r="K6">
-        <v>11.39066578638363</v>
+        <v>11.39066578638365</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.33721355947839</v>
+        <v>18.33721355947841</v>
       </c>
       <c r="C7">
-        <v>14.65109321730215</v>
+        <v>14.65109321730222</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.255041752413126</v>
+        <v>8.255041752413135</v>
       </c>
       <c r="F7">
-        <v>33.30897171735041</v>
+        <v>33.30897171735042</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>25.10135109485027</v>
+        <v>25.10135109485023</v>
       </c>
       <c r="I7">
-        <v>11.58713436775232</v>
+        <v>11.58713436775225</v>
       </c>
       <c r="J7">
-        <v>16.82969147655785</v>
+        <v>16.82969147655788</v>
       </c>
       <c r="K7">
-        <v>11.65934884882913</v>
+        <v>11.65934884882914</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.29505977277055</v>
+        <v>20.29505977277056</v>
       </c>
       <c r="C8">
-        <v>16.25261440297004</v>
+        <v>16.2526144029699</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.985780971974689</v>
+        <v>8.985780971974696</v>
       </c>
       <c r="F8">
-        <v>36.46468797985437</v>
+        <v>36.46468797985433</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26.49003913575014</v>
+        <v>26.49003913575007</v>
       </c>
       <c r="I8">
-        <v>11.82042234065313</v>
+        <v>11.82042234065315</v>
       </c>
       <c r="J8">
-        <v>18.60224060072734</v>
+        <v>18.6022406007273</v>
       </c>
       <c r="K8">
-        <v>12.78931452596937</v>
+        <v>12.78931452596932</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.78820088217088</v>
+        <v>23.78820088217083</v>
       </c>
       <c r="C9">
-        <v>19.13029644732604</v>
+        <v>19.130296447326</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.2909296736362</v>
+        <v>10.29092967363617</v>
       </c>
       <c r="F9">
-        <v>42.45589211101559</v>
+        <v>42.45589211101544</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>29.2640629040336</v>
+        <v>29.26406290403351</v>
       </c>
       <c r="I9">
-        <v>12.36269002872557</v>
+        <v>12.36269002872555</v>
       </c>
       <c r="J9">
-        <v>21.77138287927076</v>
+        <v>21.77138287927069</v>
       </c>
       <c r="K9">
-        <v>14.8122511478671</v>
+        <v>14.81225114786713</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.16184125547263</v>
+        <v>26.16184125547258</v>
       </c>
       <c r="C10">
-        <v>21.10173810074707</v>
+        <v>21.101738100747</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.175280573099</v>
+        <v>11.1752805730991</v>
       </c>
       <c r="F10">
-        <v>46.70643520184201</v>
+        <v>46.70643520184196</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>31.33661387956544</v>
+        <v>31.33661387956539</v>
       </c>
       <c r="I10">
-        <v>12.82423019626864</v>
+        <v>12.82423019626866</v>
       </c>
       <c r="J10">
-        <v>23.92998609978221</v>
+        <v>23.92998609978214</v>
       </c>
       <c r="K10">
-        <v>16.18952674249862</v>
+        <v>16.18952674249864</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.20454937523083</v>
+        <v>27.20454937523066</v>
       </c>
       <c r="C11">
-        <v>21.97218000422579</v>
+        <v>21.97218000422567</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.56243054387647</v>
+        <v>11.56243054387657</v>
       </c>
       <c r="F11">
-        <v>48.58560989897974</v>
+        <v>48.58560989897955</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>32.28941243634191</v>
+        <v>32.28941243634184</v>
       </c>
       <c r="I11">
-        <v>13.05082800879767</v>
+        <v>13.0508280087977</v>
       </c>
       <c r="J11">
-        <v>24.87963012924023</v>
+        <v>24.87963012924011</v>
       </c>
       <c r="K11">
-        <v>16.79479213422305</v>
+        <v>16.79479213422307</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.59452604516695</v>
+        <v>27.59452604516704</v>
       </c>
       <c r="C12">
-        <v>22.29845217224042</v>
+        <v>22.29845217224043</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.70696102900108</v>
+        <v>11.70696102900114</v>
       </c>
       <c r="F12">
-        <v>49.29007752861654</v>
+        <v>49.2900775286165</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>32.65198600547791</v>
+        <v>32.65198600547778</v>
       </c>
       <c r="I12">
-        <v>13.13931357331805</v>
+        <v>13.13931357331794</v>
       </c>
       <c r="J12">
-        <v>25.23502894456294</v>
+        <v>25.23502894456299</v>
       </c>
       <c r="K12">
         <v>17.02116885430708</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.51074635693691</v>
+        <v>27.51074635693694</v>
       </c>
       <c r="C13">
         <v>22.22832451203925</v>
@@ -839,25 +839,25 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.67592424171689</v>
+        <v>11.67592424171682</v>
       </c>
       <c r="F13">
-        <v>49.13866263867163</v>
+        <v>49.13866263867167</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32.57381396312803</v>
+        <v>32.5738139631281</v>
       </c>
       <c r="I13">
-        <v>13.12013249291595</v>
+        <v>13.12013249291598</v>
       </c>
       <c r="J13">
-        <v>25.15866705603072</v>
+        <v>25.15866705603075</v>
       </c>
       <c r="K13">
-        <v>16.97253604979678</v>
+        <v>16.97253604979671</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.23672781536539</v>
+        <v>27.23672781536543</v>
       </c>
       <c r="C14">
-        <v>21.99908683935296</v>
+        <v>21.999086839353</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>11.57436208013969</v>
       </c>
       <c r="F14">
-        <v>48.6437054130547</v>
+        <v>48.64370541305475</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>32.3192037687915</v>
+        <v>32.31920376879164</v>
       </c>
       <c r="I14">
-        <v>13.0580523054964</v>
+        <v>13.05805230549644</v>
       </c>
       <c r="J14">
-        <v>24.90895065600498</v>
+        <v>24.90895065600504</v>
       </c>
       <c r="K14">
-        <v>16.81347140883589</v>
+        <v>16.8134714088359</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.06826349979648</v>
+        <v>27.0682634997967</v>
       </c>
       <c r="C15">
-        <v>21.85825097733224</v>
+        <v>21.85825097733244</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.51188549425019</v>
+        <v>11.51188549425008</v>
       </c>
       <c r="F15">
-        <v>48.33962351954506</v>
+        <v>48.33962351954526</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>32.16349010321507</v>
       </c>
       <c r="I15">
-        <v>13.02038436742652</v>
+        <v>13.02038436742644</v>
       </c>
       <c r="J15">
-        <v>24.75545786601764</v>
+        <v>24.75545786601786</v>
       </c>
       <c r="K15">
-        <v>16.71567951799156</v>
+        <v>16.71567951799155</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.09298935781476</v>
+        <v>26.09298935781472</v>
       </c>
       <c r="C16">
-        <v>21.04435861939033</v>
+        <v>21.04435861939029</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.1496830499959</v>
+        <v>11.14968304999587</v>
       </c>
       <c r="F16">
-        <v>46.58258753505275</v>
+        <v>46.5825875350527</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>31.27457295842733</v>
+        <v>31.27457295842725</v>
       </c>
       <c r="I16">
-        <v>12.80977971890267</v>
+        <v>12.80977971890269</v>
       </c>
       <c r="J16">
-        <v>23.86731017095844</v>
+        <v>23.8673101709584</v>
       </c>
       <c r="K16">
-        <v>16.14956246260748</v>
+        <v>16.14956246260745</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.48549952703308</v>
+        <v>25.4854995270332</v>
       </c>
       <c r="C17">
-        <v>20.53860378469899</v>
+        <v>20.53860378469905</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.92367221592194</v>
+        <v>10.92367221592188</v>
       </c>
       <c r="F17">
-        <v>45.49121315100903</v>
+        <v>45.49121315100922</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30.7320085926611</v>
+        <v>30.73200859266121</v>
       </c>
       <c r="I17">
-        <v>12.68503210793981</v>
+        <v>12.68503210793985</v>
       </c>
       <c r="J17">
-        <v>23.3144739858244</v>
+        <v>23.31447398582453</v>
       </c>
       <c r="K17">
-        <v>15.7969764866186</v>
+        <v>15.7969764866185</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.13256705414056</v>
+        <v>25.13256705414059</v>
       </c>
       <c r="C18">
-        <v>20.24519380037446</v>
+        <v>20.24519380037444</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.79224397933364</v>
+        <v>10.79224397933365</v>
       </c>
       <c r="F18">
-        <v>44.85831212355544</v>
+        <v>44.85831212355556</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30.4208530089167</v>
+        <v>30.42085300891684</v>
       </c>
       <c r="I18">
         <v>12.61482757062094</v>
       </c>
       <c r="J18">
-        <v>22.9934259651494</v>
+        <v>22.99342596514941</v>
       </c>
       <c r="K18">
-        <v>15.59216084447787</v>
+        <v>15.59216084447783</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.01245270192338</v>
+        <v>25.01245270192342</v>
       </c>
       <c r="C19">
-        <v>20.14540603387735</v>
+        <v>20.14540603387719</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.747495701239</v>
+        <v>10.74749570123902</v>
       </c>
       <c r="F19">
-        <v>44.64311571992878</v>
+        <v>44.64311571992874</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30.31564966543161</v>
+        <v>30.31564966543155</v>
       </c>
       <c r="I19">
-        <v>12.59131523120296</v>
+        <v>12.59131523120292</v>
       </c>
       <c r="J19">
-        <v>22.88418487545606</v>
+        <v>22.88418487545604</v>
       </c>
       <c r="K19">
-        <v>15.52246075401799</v>
+        <v>15.52246075401796</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.55052910698975</v>
+        <v>25.5505291069898</v>
       </c>
       <c r="C20">
-        <v>20.59269932969802</v>
+        <v>20.59269932969799</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.94787905241742</v>
+        <v>10.94787905241749</v>
       </c>
       <c r="F20">
         <v>45.6079224707873</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30.78966895978408</v>
+        <v>30.78966895978417</v>
       </c>
       <c r="I20">
-        <v>12.69814967168231</v>
+        <v>12.69814967168232</v>
       </c>
       <c r="J20">
-        <v>23.37363925293491</v>
+        <v>23.37363925293493</v>
       </c>
       <c r="K20">
-        <v>15.83471709638311</v>
+        <v>15.83471709638307</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.31734200558274</v>
+        <v>27.31734200558278</v>
       </c>
       <c r="C21">
-        <v>22.06650637043555</v>
+        <v>22.06650637043564</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.60424874567722</v>
+        <v>11.60424874567726</v>
       </c>
       <c r="F21">
-        <v>48.78927378589499</v>
+        <v>48.7892737858951</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32.3939376600234</v>
+        <v>32.39393766002356</v>
       </c>
       <c r="I21">
-        <v>13.07621158618353</v>
+        <v>13.07621158618363</v>
       </c>
       <c r="J21">
-        <v>24.98240888499979</v>
+        <v>24.98240888499982</v>
       </c>
       <c r="K21">
-        <v>16.86026714419987</v>
+        <v>16.86026714419988</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.44391025213766</v>
+        <v>28.44391025213753</v>
       </c>
       <c r="C22">
-        <v>23.01048756840372</v>
+        <v>23.01048756840369</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.02119222353897</v>
+        <v>12.02119222353907</v>
       </c>
       <c r="F22">
-        <v>50.82730850018901</v>
+        <v>50.82730850018892</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>33.45298123475238</v>
+        <v>33.45298123475236</v>
       </c>
       <c r="I22">
-        <v>13.33907332783284</v>
+        <v>13.33907332783287</v>
       </c>
       <c r="J22">
-        <v>26.00954302840358</v>
+        <v>26.00954302840348</v>
       </c>
       <c r="K22">
-        <v>17.51419947599677</v>
+        <v>17.51419947599686</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.84504521627103</v>
+        <v>27.84504521627106</v>
       </c>
       <c r="C23">
-        <v>22.50825999163043</v>
+        <v>22.50825999163055</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.799723601422</v>
+        <v>11.79972360142177</v>
       </c>
       <c r="F23">
-        <v>49.74307128716358</v>
+        <v>49.74307128716364</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32.88663992611358</v>
+        <v>32.88663992611362</v>
       </c>
       <c r="I23">
-        <v>13.19722883622293</v>
+        <v>13.19722883622292</v>
       </c>
       <c r="J23">
-        <v>25.46340233314767</v>
+        <v>25.46340233314777</v>
       </c>
       <c r="K23">
-        <v>17.16658958492352</v>
+        <v>17.16658958492343</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.52114072502799</v>
+        <v>25.5211407250279</v>
       </c>
       <c r="C24">
-        <v>20.56825100448731</v>
+        <v>20.5682510044873</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>10.93693979515398</v>
       </c>
       <c r="F24">
-        <v>45.55517522977791</v>
+        <v>45.55517522977788</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30.76359832707207</v>
+        <v>30.76359832707205</v>
       </c>
       <c r="I24">
-        <v>12.6922145246178</v>
+        <v>12.69221452461779</v>
       </c>
       <c r="J24">
-        <v>23.34690068205089</v>
+        <v>23.34690068205084</v>
       </c>
       <c r="K24">
-        <v>15.81766115367693</v>
+        <v>15.81766115367692</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.87851445583434</v>
+        <v>22.8785144558343</v>
       </c>
       <c r="C25">
-        <v>18.37827714921245</v>
+        <v>18.37827714921251</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.951238675060011</v>
+        <v>9.951238675060059</v>
       </c>
       <c r="F25">
-        <v>40.83847909234215</v>
+        <v>40.8384790923421</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28.50808574843669</v>
+        <v>28.50808574843671</v>
       </c>
       <c r="I25">
         <v>12.20580064657267</v>
       </c>
       <c r="J25">
-        <v>20.94523199649648</v>
+        <v>20.94523199649642</v>
       </c>
       <c r="K25">
         <v>14.2848398415733</v>

--- a/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.80150117477637</v>
+        <v>20.80150117477639</v>
       </c>
       <c r="C2">
-        <v>16.66817827397172</v>
+        <v>16.6681782739718</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.1750284952351</v>
+        <v>9.175028495234951</v>
       </c>
       <c r="F2">
-        <v>37.29399947199145</v>
+        <v>37.2939994719915</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>26.86976592608245</v>
       </c>
       <c r="I2">
-        <v>11.88898126468683</v>
+        <v>11.88898126468676</v>
       </c>
       <c r="J2">
-        <v>19.06117547280166</v>
+        <v>19.06117547280169</v>
       </c>
       <c r="K2">
-        <v>13.08215071946787</v>
+        <v>13.08215071946778</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>19.30598049452145</v>
       </c>
       <c r="C3">
-        <v>15.44256473713842</v>
+        <v>15.44256473713827</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.616389690170212</v>
+        <v>8.616389690170157</v>
       </c>
       <c r="F3">
-        <v>34.85986694953844</v>
+        <v>34.85986694953848</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>25.77229898161479</v>
+        <v>25.77229898161488</v>
       </c>
       <c r="I3">
-        <v>11.69628671796457</v>
+        <v>11.69628671796462</v>
       </c>
       <c r="J3">
-        <v>17.70644732538932</v>
+        <v>17.70644732538926</v>
       </c>
       <c r="K3">
-        <v>12.21800983075778</v>
+        <v>12.21800983075772</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.34261698447176</v>
+        <v>18.3426169844717</v>
       </c>
       <c r="C4">
-        <v>14.65550250316633</v>
+        <v>14.6555025031664</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.257055518943208</v>
+        <v>8.257055518943231</v>
       </c>
       <c r="F4">
-        <v>33.31755979127139</v>
+        <v>33.31755979127142</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>25.10500217906106</v>
+        <v>25.10500217906118</v>
       </c>
       <c r="I4">
-        <v>11.58770925739272</v>
+        <v>11.58770925739273</v>
       </c>
       <c r="J4">
-        <v>16.83457995239579</v>
+        <v>16.83457995239578</v>
       </c>
       <c r="K4">
-        <v>11.66246202731026</v>
+        <v>11.66246202731031</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.9384596174499</v>
+        <v>17.93845961744989</v>
       </c>
       <c r="C5">
-        <v>14.32586422644984</v>
+        <v>14.32586422644977</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.106495795069488</v>
+        <v>8.106495795069554</v>
       </c>
       <c r="F5">
         <v>32.67724105728055</v>
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>24.83481005864398</v>
+        <v>24.83481005864393</v>
       </c>
       <c r="I5">
-        <v>11.54575473776305</v>
+        <v>11.54575473776301</v>
       </c>
       <c r="J5">
-        <v>16.46899279659612</v>
+        <v>16.46899279659608</v>
       </c>
       <c r="K5">
-        <v>11.42970240665627</v>
+        <v>11.42970240665632</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87064367900653</v>
+        <v>17.87064367900664</v>
       </c>
       <c r="C6">
         <v>14.27058414543857</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.081245746152414</v>
+        <v>8.081245746152407</v>
       </c>
       <c r="F6">
         <v>32.57021128659267</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>24.79005311512654</v>
+        <v>24.79005311512643</v>
       </c>
       <c r="I6">
-        <v>11.53892216772477</v>
+        <v>11.5389221677247</v>
       </c>
       <c r="J6">
-        <v>16.40765945518152</v>
+        <v>16.40765945518158</v>
       </c>
       <c r="K6">
-        <v>11.39066578638365</v>
+        <v>11.39066578638363</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.33721355947841</v>
+        <v>18.33721355947839</v>
       </c>
       <c r="C7">
-        <v>14.65109321730222</v>
+        <v>14.65109321730215</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.255041752413135</v>
+        <v>8.255041752413126</v>
       </c>
       <c r="F7">
-        <v>33.30897171735042</v>
+        <v>33.30897171735041</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>25.10135109485023</v>
+        <v>25.10135109485027</v>
       </c>
       <c r="I7">
-        <v>11.58713436775225</v>
+        <v>11.58713436775232</v>
       </c>
       <c r="J7">
-        <v>16.82969147655788</v>
+        <v>16.82969147655785</v>
       </c>
       <c r="K7">
-        <v>11.65934884882914</v>
+        <v>11.65934884882913</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.29505977277056</v>
+        <v>20.29505977277055</v>
       </c>
       <c r="C8">
-        <v>16.2526144029699</v>
+        <v>16.25261440297004</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.985780971974696</v>
+        <v>8.985780971974689</v>
       </c>
       <c r="F8">
-        <v>36.46468797985433</v>
+        <v>36.46468797985437</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>26.49003913575007</v>
+        <v>26.49003913575014</v>
       </c>
       <c r="I8">
-        <v>11.82042234065315</v>
+        <v>11.82042234065313</v>
       </c>
       <c r="J8">
-        <v>18.6022406007273</v>
+        <v>18.60224060072734</v>
       </c>
       <c r="K8">
-        <v>12.78931452596932</v>
+        <v>12.78931452596937</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.78820088217083</v>
+        <v>23.78820088217088</v>
       </c>
       <c r="C9">
-        <v>19.130296447326</v>
+        <v>19.13029644732604</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.29092967363617</v>
+        <v>10.2909296736362</v>
       </c>
       <c r="F9">
-        <v>42.45589211101544</v>
+        <v>42.45589211101559</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>29.26406290403351</v>
+        <v>29.2640629040336</v>
       </c>
       <c r="I9">
-        <v>12.36269002872555</v>
+        <v>12.36269002872557</v>
       </c>
       <c r="J9">
-        <v>21.77138287927069</v>
+        <v>21.77138287927076</v>
       </c>
       <c r="K9">
-        <v>14.81225114786713</v>
+        <v>14.8122511478671</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.16184125547258</v>
+        <v>26.16184125547263</v>
       </c>
       <c r="C10">
-        <v>21.101738100747</v>
+        <v>21.10173810074707</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.1752805730991</v>
+        <v>11.175280573099</v>
       </c>
       <c r="F10">
-        <v>46.70643520184196</v>
+        <v>46.70643520184201</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>31.33661387956539</v>
+        <v>31.33661387956544</v>
       </c>
       <c r="I10">
-        <v>12.82423019626866</v>
+        <v>12.82423019626864</v>
       </c>
       <c r="J10">
-        <v>23.92998609978214</v>
+        <v>23.92998609978221</v>
       </c>
       <c r="K10">
-        <v>16.18952674249864</v>
+        <v>16.18952674249862</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.20454937523066</v>
+        <v>27.20454937523083</v>
       </c>
       <c r="C11">
-        <v>21.97218000422567</v>
+        <v>21.97218000422579</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.56243054387657</v>
+        <v>11.56243054387647</v>
       </c>
       <c r="F11">
-        <v>48.58560989897955</v>
+        <v>48.58560989897974</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>32.28941243634184</v>
+        <v>32.28941243634191</v>
       </c>
       <c r="I11">
-        <v>13.0508280087977</v>
+        <v>13.05082800879767</v>
       </c>
       <c r="J11">
-        <v>24.87963012924011</v>
+        <v>24.87963012924023</v>
       </c>
       <c r="K11">
-        <v>16.79479213422307</v>
+        <v>16.79479213422305</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.59452604516704</v>
+        <v>27.59452604516695</v>
       </c>
       <c r="C12">
-        <v>22.29845217224043</v>
+        <v>22.29845217224042</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.70696102900114</v>
+        <v>11.70696102900108</v>
       </c>
       <c r="F12">
-        <v>49.2900775286165</v>
+        <v>49.29007752861654</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>32.65198600547778</v>
+        <v>32.65198600547791</v>
       </c>
       <c r="I12">
-        <v>13.13931357331794</v>
+        <v>13.13931357331805</v>
       </c>
       <c r="J12">
-        <v>25.23502894456299</v>
+        <v>25.23502894456294</v>
       </c>
       <c r="K12">
         <v>17.02116885430708</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.51074635693694</v>
+        <v>27.51074635693691</v>
       </c>
       <c r="C13">
         <v>22.22832451203925</v>
@@ -839,25 +839,25 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.67592424171682</v>
+        <v>11.67592424171689</v>
       </c>
       <c r="F13">
-        <v>49.13866263867167</v>
+        <v>49.13866263867163</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32.5738139631281</v>
+        <v>32.57381396312803</v>
       </c>
       <c r="I13">
-        <v>13.12013249291598</v>
+        <v>13.12013249291595</v>
       </c>
       <c r="J13">
-        <v>25.15866705603075</v>
+        <v>25.15866705603072</v>
       </c>
       <c r="K13">
-        <v>16.97253604979671</v>
+        <v>16.97253604979678</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.23672781536543</v>
+        <v>27.23672781536539</v>
       </c>
       <c r="C14">
-        <v>21.999086839353</v>
+        <v>21.99908683935296</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -880,22 +880,22 @@
         <v>11.57436208013969</v>
       </c>
       <c r="F14">
-        <v>48.64370541305475</v>
+        <v>48.6437054130547</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>32.31920376879164</v>
+        <v>32.3192037687915</v>
       </c>
       <c r="I14">
-        <v>13.05805230549644</v>
+        <v>13.0580523054964</v>
       </c>
       <c r="J14">
-        <v>24.90895065600504</v>
+        <v>24.90895065600498</v>
       </c>
       <c r="K14">
-        <v>16.8134714088359</v>
+        <v>16.81347140883589</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.0682634997967</v>
+        <v>27.06826349979648</v>
       </c>
       <c r="C15">
-        <v>21.85825097733244</v>
+        <v>21.85825097733224</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.51188549425008</v>
+        <v>11.51188549425019</v>
       </c>
       <c r="F15">
-        <v>48.33962351954526</v>
+        <v>48.33962351954506</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>32.16349010321507</v>
       </c>
       <c r="I15">
-        <v>13.02038436742644</v>
+        <v>13.02038436742652</v>
       </c>
       <c r="J15">
-        <v>24.75545786601786</v>
+        <v>24.75545786601764</v>
       </c>
       <c r="K15">
-        <v>16.71567951799155</v>
+        <v>16.71567951799156</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.09298935781472</v>
+        <v>26.09298935781476</v>
       </c>
       <c r="C16">
-        <v>21.04435861939029</v>
+        <v>21.04435861939033</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.14968304999587</v>
+        <v>11.1496830499959</v>
       </c>
       <c r="F16">
-        <v>46.5825875350527</v>
+        <v>46.58258753505275</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>31.27457295842725</v>
+        <v>31.27457295842733</v>
       </c>
       <c r="I16">
-        <v>12.80977971890269</v>
+        <v>12.80977971890267</v>
       </c>
       <c r="J16">
-        <v>23.8673101709584</v>
+        <v>23.86731017095844</v>
       </c>
       <c r="K16">
-        <v>16.14956246260745</v>
+        <v>16.14956246260748</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.4854995270332</v>
+        <v>25.48549952703308</v>
       </c>
       <c r="C17">
-        <v>20.53860378469905</v>
+        <v>20.53860378469899</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.92367221592188</v>
+        <v>10.92367221592194</v>
       </c>
       <c r="F17">
-        <v>45.49121315100922</v>
+        <v>45.49121315100903</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>30.73200859266121</v>
+        <v>30.7320085926611</v>
       </c>
       <c r="I17">
-        <v>12.68503210793985</v>
+        <v>12.68503210793981</v>
       </c>
       <c r="J17">
-        <v>23.31447398582453</v>
+        <v>23.3144739858244</v>
       </c>
       <c r="K17">
-        <v>15.7969764866185</v>
+        <v>15.7969764866186</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.13256705414059</v>
+        <v>25.13256705414056</v>
       </c>
       <c r="C18">
-        <v>20.24519380037444</v>
+        <v>20.24519380037446</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.79224397933365</v>
+        <v>10.79224397933364</v>
       </c>
       <c r="F18">
-        <v>44.85831212355556</v>
+        <v>44.85831212355544</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30.42085300891684</v>
+        <v>30.4208530089167</v>
       </c>
       <c r="I18">
         <v>12.61482757062094</v>
       </c>
       <c r="J18">
-        <v>22.99342596514941</v>
+        <v>22.9934259651494</v>
       </c>
       <c r="K18">
-        <v>15.59216084447783</v>
+        <v>15.59216084447787</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.01245270192342</v>
+        <v>25.01245270192338</v>
       </c>
       <c r="C19">
-        <v>20.14540603387719</v>
+        <v>20.14540603387735</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.74749570123902</v>
+        <v>10.747495701239</v>
       </c>
       <c r="F19">
-        <v>44.64311571992874</v>
+        <v>44.64311571992878</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30.31564966543155</v>
+        <v>30.31564966543161</v>
       </c>
       <c r="I19">
-        <v>12.59131523120292</v>
+        <v>12.59131523120296</v>
       </c>
       <c r="J19">
-        <v>22.88418487545604</v>
+        <v>22.88418487545606</v>
       </c>
       <c r="K19">
-        <v>15.52246075401796</v>
+        <v>15.52246075401799</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.5505291069898</v>
+        <v>25.55052910698975</v>
       </c>
       <c r="C20">
-        <v>20.59269932969799</v>
+        <v>20.59269932969802</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.94787905241749</v>
+        <v>10.94787905241742</v>
       </c>
       <c r="F20">
         <v>45.6079224707873</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>30.78966895978417</v>
+        <v>30.78966895978408</v>
       </c>
       <c r="I20">
-        <v>12.69814967168232</v>
+        <v>12.69814967168231</v>
       </c>
       <c r="J20">
-        <v>23.37363925293493</v>
+        <v>23.37363925293491</v>
       </c>
       <c r="K20">
-        <v>15.83471709638307</v>
+        <v>15.83471709638311</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.31734200558278</v>
+        <v>27.31734200558274</v>
       </c>
       <c r="C21">
-        <v>22.06650637043564</v>
+        <v>22.06650637043555</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.60424874567726</v>
+        <v>11.60424874567722</v>
       </c>
       <c r="F21">
-        <v>48.7892737858951</v>
+        <v>48.78927378589499</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>32.39393766002356</v>
+        <v>32.3939376600234</v>
       </c>
       <c r="I21">
-        <v>13.07621158618363</v>
+        <v>13.07621158618353</v>
       </c>
       <c r="J21">
-        <v>24.98240888499982</v>
+        <v>24.98240888499979</v>
       </c>
       <c r="K21">
-        <v>16.86026714419988</v>
+        <v>16.86026714419987</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.44391025213753</v>
+        <v>28.44391025213766</v>
       </c>
       <c r="C22">
-        <v>23.01048756840369</v>
+        <v>23.01048756840372</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.02119222353907</v>
+        <v>12.02119222353897</v>
       </c>
       <c r="F22">
-        <v>50.82730850018892</v>
+        <v>50.82730850018901</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>33.45298123475236</v>
+        <v>33.45298123475238</v>
       </c>
       <c r="I22">
-        <v>13.33907332783287</v>
+        <v>13.33907332783284</v>
       </c>
       <c r="J22">
-        <v>26.00954302840348</v>
+        <v>26.00954302840358</v>
       </c>
       <c r="K22">
-        <v>17.51419947599686</v>
+        <v>17.51419947599677</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.84504521627106</v>
+        <v>27.84504521627103</v>
       </c>
       <c r="C23">
-        <v>22.50825999163055</v>
+        <v>22.50825999163043</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.79972360142177</v>
+        <v>11.799723601422</v>
       </c>
       <c r="F23">
-        <v>49.74307128716364</v>
+        <v>49.74307128716358</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>32.88663992611362</v>
+        <v>32.88663992611358</v>
       </c>
       <c r="I23">
-        <v>13.19722883622292</v>
+        <v>13.19722883622293</v>
       </c>
       <c r="J23">
-        <v>25.46340233314777</v>
+        <v>25.46340233314767</v>
       </c>
       <c r="K23">
-        <v>17.16658958492343</v>
+        <v>17.16658958492352</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.5211407250279</v>
+        <v>25.52114072502799</v>
       </c>
       <c r="C24">
-        <v>20.5682510044873</v>
+        <v>20.56825100448731</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>10.93693979515398</v>
       </c>
       <c r="F24">
-        <v>45.55517522977788</v>
+        <v>45.55517522977791</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>30.76359832707205</v>
+        <v>30.76359832707207</v>
       </c>
       <c r="I24">
-        <v>12.69221452461779</v>
+        <v>12.6922145246178</v>
       </c>
       <c r="J24">
-        <v>23.34690068205084</v>
+        <v>23.34690068205089</v>
       </c>
       <c r="K24">
-        <v>15.81766115367692</v>
+        <v>15.81766115367693</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.8785144558343</v>
+        <v>22.87851445583434</v>
       </c>
       <c r="C25">
-        <v>18.37827714921251</v>
+        <v>18.37827714921245</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.951238675060059</v>
+        <v>9.951238675060011</v>
       </c>
       <c r="F25">
-        <v>40.8384790923421</v>
+        <v>40.83847909234215</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>28.50808574843671</v>
+        <v>28.50808574843669</v>
       </c>
       <c r="I25">
         <v>12.20580064657267</v>
       </c>
       <c r="J25">
-        <v>20.94523199649642</v>
+        <v>20.94523199649648</v>
       </c>
       <c r="K25">
         <v>14.2848398415733</v>

--- a/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.80150117477639</v>
+        <v>20.68252231747423</v>
       </c>
       <c r="C2">
-        <v>16.6681782739718</v>
+        <v>16.53548231568307</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.175028495234951</v>
+        <v>9.271671377804326</v>
       </c>
       <c r="F2">
-        <v>37.2939994719915</v>
+        <v>37.28556827574443</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.06560005276341</v>
       </c>
       <c r="H2">
-        <v>26.86976592608245</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.88898126468676</v>
+        <v>27.05723457118947</v>
       </c>
       <c r="J2">
-        <v>19.06117547280169</v>
+        <v>12.05416905694904</v>
       </c>
       <c r="K2">
-        <v>13.08215071946778</v>
+        <v>18.92180952932988</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>13.0756628849502</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.30598049452145</v>
+        <v>19.19272012025462</v>
       </c>
       <c r="C3">
-        <v>15.44256473713827</v>
+        <v>15.31751087145171</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.616389690170157</v>
+        <v>8.716882167072894</v>
       </c>
       <c r="F3">
-        <v>34.85986694953848</v>
+        <v>34.86632528981563</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.077958700779812</v>
       </c>
       <c r="H3">
-        <v>25.77229898161488</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>11.69628671796462</v>
+        <v>25.98564741401086</v>
       </c>
       <c r="J3">
-        <v>17.70644732538926</v>
+        <v>11.87372255566712</v>
       </c>
       <c r="K3">
-        <v>12.21800983075772</v>
+        <v>17.57111050193055</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.2134505536098</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.3426169844717</v>
+        <v>18.2330373433034</v>
       </c>
       <c r="C4">
-        <v>14.6555025031664</v>
+        <v>14.5354641965462</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.257055518943231</v>
+        <v>8.360266181429491</v>
       </c>
       <c r="F4">
-        <v>33.31755979127142</v>
+        <v>33.33408631197713</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.085676822761282</v>
       </c>
       <c r="H4">
-        <v>25.10500217906118</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>11.58770925739273</v>
+        <v>25.33518232526755</v>
       </c>
       <c r="J4">
-        <v>16.83457995239578</v>
+        <v>11.7726555008163</v>
       </c>
       <c r="K4">
-        <v>11.66246202731031</v>
+        <v>16.70169560767119</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.65914457591838</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.93845961744989</v>
+        <v>17.83042743273869</v>
       </c>
       <c r="C5">
-        <v>14.32586422644977</v>
+        <v>14.20795967061956</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.106495795069554</v>
+        <v>8.210909163241386</v>
       </c>
       <c r="F5">
-        <v>32.67724105728055</v>
+        <v>32.69811935106485</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.088858594090452</v>
       </c>
       <c r="H5">
-        <v>24.83481005864393</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>11.54575473776301</v>
+        <v>25.07207481565529</v>
       </c>
       <c r="J5">
-        <v>16.46899279659608</v>
+        <v>11.73375745896642</v>
       </c>
       <c r="K5">
-        <v>11.42970240665632</v>
+        <v>16.33710277733888</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11.42690747077956</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.87064367900664</v>
+        <v>17.76287146595227</v>
       </c>
       <c r="C6">
-        <v>14.27058414543857</v>
+        <v>14.153039595664</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.081245746152407</v>
+        <v>8.185864748740764</v>
       </c>
       <c r="F6">
-        <v>32.57021128659267</v>
+        <v>32.59182770216142</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.089389241558721</v>
       </c>
       <c r="H6">
-        <v>24.79005311512643</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>11.5389221677247</v>
+        <v>25.02850748888287</v>
       </c>
       <c r="J6">
-        <v>16.40765945518158</v>
+        <v>11.72743212690654</v>
       </c>
       <c r="K6">
-        <v>11.39066578638363</v>
+        <v>16.27593422840378</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11.38795866572312</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.33721355947839</v>
+        <v>18.22765458880162</v>
       </c>
       <c r="C7">
-        <v>14.65109321730215</v>
+        <v>14.53108331125477</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.255041752413126</v>
+        <v>8.358268241930435</v>
       </c>
       <c r="F7">
-        <v>33.30897171735041</v>
+        <v>33.32555589814166</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.085719580234874</v>
       </c>
       <c r="H7">
-        <v>25.10135109485027</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>11.58713436775232</v>
+        <v>25.3316258908907</v>
       </c>
       <c r="J7">
-        <v>16.82969147655785</v>
+        <v>11.77212185032497</v>
       </c>
       <c r="K7">
-        <v>11.65934884882913</v>
+        <v>16.69682056244275</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.65603837501173</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.29505977277055</v>
+        <v>20.1780203568709</v>
       </c>
       <c r="C8">
-        <v>16.25261440297004</v>
+        <v>16.12249123362408</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.985780971974689</v>
+        <v>9.083680915198</v>
       </c>
       <c r="F8">
-        <v>36.46468797985437</v>
+        <v>36.46120800918886</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.069836840115176</v>
       </c>
       <c r="H8">
-        <v>26.49003913575014</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>11.82042234065313</v>
+        <v>26.68623021482459</v>
       </c>
       <c r="J8">
-        <v>18.60224060072734</v>
+        <v>11.98983433058181</v>
       </c>
       <c r="K8">
-        <v>12.78931452596937</v>
+        <v>18.46426879218576</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12.78348086283594</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.78820088217088</v>
+        <v>23.65762039164848</v>
       </c>
       <c r="C9">
-        <v>19.13029644732604</v>
+        <v>18.98255875708799</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.2909296736362</v>
+        <v>10.38097287564736</v>
       </c>
       <c r="F9">
-        <v>42.45589211101559</v>
+        <v>42.39059524484816</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.039522258635647</v>
       </c>
       <c r="H9">
-        <v>29.2640629040336</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>12.36269002872557</v>
+        <v>29.40117747976451</v>
       </c>
       <c r="J9">
-        <v>21.77138287927076</v>
+        <v>12.5015515048345</v>
       </c>
       <c r="K9">
-        <v>14.8122511478671</v>
+        <v>21.62317842368765</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>14.80183778355166</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.16184125547263</v>
+        <v>26.02168140692012</v>
       </c>
       <c r="C10">
-        <v>21.10173810074707</v>
+        <v>20.94194896910582</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.175280573099</v>
+        <v>11.26086630836562</v>
       </c>
       <c r="F10">
-        <v>46.70643520184201</v>
+        <v>46.62285095946041</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.017439245283534</v>
       </c>
       <c r="H10">
-        <v>31.33661387956544</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>12.82423019626864</v>
+        <v>31.43516484620071</v>
       </c>
       <c r="J10">
-        <v>23.92998609978221</v>
+        <v>12.94072058107388</v>
       </c>
       <c r="K10">
-        <v>16.18952674249862</v>
+        <v>23.77397058145528</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>16.17583957745349</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.20454937523083</v>
+        <v>27.06003054392013</v>
       </c>
       <c r="C11">
-        <v>21.97218000422579</v>
+        <v>21.80699604308536</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.56243054387647</v>
+        <v>11.64622654559327</v>
       </c>
       <c r="F11">
-        <v>48.58560989897974</v>
+        <v>48.49402267816669</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.007349467525123</v>
       </c>
       <c r="H11">
-        <v>32.28941243634191</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>13.05082800879767</v>
+        <v>32.37141393043761</v>
       </c>
       <c r="J11">
-        <v>24.87963012924023</v>
+        <v>13.15716171492365</v>
       </c>
       <c r="K11">
-        <v>16.79479213422305</v>
+        <v>24.71994135599576</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>16.77960073531785</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.59452604516695</v>
+        <v>27.44834817185571</v>
       </c>
       <c r="C12">
-        <v>22.29845217224042</v>
+        <v>22.13122788165307</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.70696102900108</v>
+        <v>11.79010995193225</v>
       </c>
       <c r="F12">
-        <v>49.29007752861654</v>
+        <v>49.19548815149358</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.00351395838662</v>
       </c>
       <c r="H12">
-        <v>32.65198600547791</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>13.13931357331805</v>
+        <v>32.72785351628021</v>
       </c>
       <c r="J12">
-        <v>25.23502894456294</v>
+        <v>13.24180293404903</v>
       </c>
       <c r="K12">
-        <v>17.02116885430708</v>
+        <v>25.07392535536981</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>17.00540216050074</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.51074635693691</v>
+        <v>27.36492630926421</v>
       </c>
       <c r="C13">
-        <v>22.22832451203925</v>
+        <v>22.06153970449478</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.67592424171689</v>
+        <v>11.75921121686981</v>
       </c>
       <c r="F13">
-        <v>49.13866263867163</v>
+        <v>49.04471885710412</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.004340807472036</v>
       </c>
       <c r="H13">
-        <v>32.57381396312803</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>13.12013249291595</v>
+        <v>32.65099682661494</v>
       </c>
       <c r="J13">
-        <v>25.15866705603072</v>
+        <v>13.22344975962616</v>
       </c>
       <c r="K13">
-        <v>16.97253604979678</v>
+        <v>24.99786935766728</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>16.95689357210873</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.23672781536539</v>
+        <v>27.09207271456114</v>
       </c>
       <c r="C14">
-        <v>21.99908683935296</v>
+        <v>21.83373503028799</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.57436208013969</v>
+        <v>11.6581042519439</v>
       </c>
       <c r="F14">
-        <v>48.6437054130547</v>
+        <v>48.55187073775304</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.007034266051167</v>
       </c>
       <c r="H14">
-        <v>32.3192037687915</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>13.0580523054964</v>
+        <v>32.40069802356249</v>
       </c>
       <c r="J14">
-        <v>24.90895065600498</v>
+        <v>13.16406971198167</v>
       </c>
       <c r="K14">
-        <v>16.81347140883589</v>
+        <v>24.74914600699807</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>16.79823281647527</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.06826349979648</v>
+        <v>26.92432059929596</v>
       </c>
       <c r="C15">
-        <v>21.85825097733224</v>
+        <v>21.69377693370411</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.51188549425019</v>
+        <v>11.59591037551347</v>
       </c>
       <c r="F15">
-        <v>48.33962351954506</v>
+        <v>48.24908389594924</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.008681896660987</v>
       </c>
       <c r="H15">
-        <v>32.16349010321507</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>13.02038436742652</v>
+        <v>32.24764215803555</v>
       </c>
       <c r="J15">
-        <v>24.75545786601764</v>
+        <v>13.12805585622925</v>
       </c>
       <c r="K15">
-        <v>16.71567951799156</v>
+        <v>24.59625815773667</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>16.70068746171535</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.09298935781476</v>
+        <v>25.95311368648044</v>
       </c>
       <c r="C16">
-        <v>21.04435861939033</v>
+        <v>20.88492299043225</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.1496830499959</v>
+        <v>11.2353902292604</v>
       </c>
       <c r="F16">
-        <v>46.58258753505275</v>
+        <v>46.49953124435199</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.018097061896479</v>
       </c>
       <c r="H16">
-        <v>31.27457295842733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>12.80977971890267</v>
+        <v>31.37422470784846</v>
       </c>
       <c r="J16">
-        <v>23.86731017095844</v>
+        <v>12.92693421099974</v>
       </c>
       <c r="K16">
-        <v>16.14956246260748</v>
+        <v>23.71153177227502</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>16.13597301570782</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.48549952703308</v>
+        <v>25.34811326558235</v>
       </c>
       <c r="C17">
-        <v>20.53860378469899</v>
+        <v>20.38227477891868</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.92367221592194</v>
+        <v>11.01046979722492</v>
       </c>
       <c r="F17">
-        <v>45.49121315100903</v>
+        <v>45.41281692614328</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.023856107769709</v>
       </c>
       <c r="H17">
-        <v>30.7320085926611</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>12.68503210793981</v>
+        <v>30.84141756103869</v>
       </c>
       <c r="J17">
-        <v>23.3144739858244</v>
+        <v>12.80800894141001</v>
       </c>
       <c r="K17">
-        <v>15.7969764866186</v>
+        <v>23.16075958735556</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>15.78424135871591</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.13256705414056</v>
+        <v>24.99661308200874</v>
       </c>
       <c r="C18">
-        <v>20.24519380037446</v>
+        <v>20.09066053847133</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.79224397933364</v>
+        <v>10.87969133148108</v>
       </c>
       <c r="F18">
-        <v>44.85831212355544</v>
+        <v>44.78262707752815</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.027164981371928</v>
       </c>
       <c r="H18">
-        <v>30.4208530089167</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>12.61482757062094</v>
+        <v>30.53596840422229</v>
       </c>
       <c r="J18">
-        <v>22.9934259651494</v>
+        <v>12.74115529370916</v>
       </c>
       <c r="K18">
-        <v>15.59216084447787</v>
+        <v>22.84088792300717</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>15.5799159339973</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.01245270192338</v>
+        <v>24.87698398084826</v>
       </c>
       <c r="C19">
-        <v>20.14540603387735</v>
+        <v>19.991482589579</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.747495701239</v>
+        <v>10.83516704746542</v>
       </c>
       <c r="F19">
-        <v>44.64311571992878</v>
+        <v>44.56835442268639</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.028284928910147</v>
       </c>
       <c r="H19">
-        <v>30.31564966543161</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>12.59131523120296</v>
+        <v>30.4327135954731</v>
       </c>
       <c r="J19">
-        <v>22.88418487545606</v>
+        <v>12.71877786566061</v>
       </c>
       <c r="K19">
-        <v>15.52246075401799</v>
+        <v>22.73204344423886</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>15.5103817195115</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.55052910698975</v>
+        <v>25.4128778519543</v>
       </c>
       <c r="C20">
-        <v>20.59269932969802</v>
+        <v>20.43603876558925</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.94787905241742</v>
+        <v>11.03455824578862</v>
       </c>
       <c r="F20">
-        <v>45.6079224707873</v>
+        <v>45.5290271013397</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.023243474242976</v>
       </c>
       <c r="H20">
-        <v>30.78966895978408</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>12.69814967168231</v>
+        <v>30.89802955110961</v>
       </c>
       <c r="J20">
-        <v>23.37363925293491</v>
+        <v>12.82050649954262</v>
       </c>
       <c r="K20">
-        <v>15.83471709638311</v>
+        <v>23.21970629810651</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>15.8218911686504</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.31734200558274</v>
+        <v>27.17234503274764</v>
       </c>
       <c r="C21">
-        <v>22.06650637043555</v>
+        <v>21.90073367250954</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.60424874567722</v>
+        <v>11.68785641107687</v>
       </c>
       <c r="F21">
-        <v>48.78927378589499</v>
+        <v>48.69681898876393</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.006243605446713</v>
       </c>
       <c r="H21">
-        <v>32.3939376600234</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>13.07621158618353</v>
+        <v>32.47416204622662</v>
       </c>
       <c r="J21">
-        <v>24.98240888499979</v>
+        <v>13.18143586545594</v>
       </c>
       <c r="K21">
-        <v>16.86026714419987</v>
+        <v>24.82231326186961</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>16.84491010649213</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.44391025213766</v>
+        <v>28.29405844716121</v>
       </c>
       <c r="C22">
-        <v>23.01048756840372</v>
+        <v>22.83876868363376</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.02119222353897</v>
+        <v>12.10296954739107</v>
       </c>
       <c r="F22">
-        <v>50.82730850018901</v>
+        <v>50.72614799475361</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.995042405897209</v>
       </c>
       <c r="H22">
-        <v>33.45298123475238</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>13.33907332783284</v>
+        <v>33.51558421546586</v>
       </c>
       <c r="J22">
-        <v>26.00954302840358</v>
+        <v>13.43310895165636</v>
       </c>
       <c r="K22">
-        <v>17.51419947599677</v>
+        <v>25.84527633666666</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>17.49715294962385</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.84504521627103</v>
+        <v>27.69779262451157</v>
       </c>
       <c r="C23">
-        <v>22.50825999163043</v>
+        <v>22.33971760563723</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.799723601422</v>
+        <v>11.88246276416922</v>
       </c>
       <c r="F23">
-        <v>49.74307128716358</v>
+        <v>49.64654902742082</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2.001032152869</v>
       </c>
       <c r="H23">
-        <v>32.88663992611358</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>13.19722883622293</v>
+        <v>32.95858195894238</v>
       </c>
       <c r="J23">
-        <v>25.46340233314767</v>
+        <v>13.29723612022139</v>
       </c>
       <c r="K23">
-        <v>17.16658958492352</v>
+        <v>25.30137762445149</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>17.15044935590338</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.52114072502799</v>
+        <v>25.38360926959247</v>
       </c>
       <c r="C24">
-        <v>20.56825100448731</v>
+        <v>20.41174030694708</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.93693979515398</v>
+        <v>11.02367244016117</v>
       </c>
       <c r="F24">
-        <v>45.55517522977791</v>
+        <v>45.47650542252703</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.023520451721761</v>
       </c>
       <c r="H24">
-        <v>30.76359832707207</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>12.6922145246178</v>
+        <v>30.87243258723788</v>
       </c>
       <c r="J24">
-        <v>23.34690068205089</v>
+        <v>12.81485164590722</v>
       </c>
       <c r="K24">
-        <v>15.81766115367693</v>
+        <v>23.19306656806065</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>15.80487627922902</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.87851445583434</v>
+        <v>22.75150767012424</v>
       </c>
       <c r="C25">
-        <v>18.37827714921245</v>
+        <v>18.23511474522497</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.951238675060011</v>
+        <v>10.04315925410896</v>
       </c>
       <c r="F25">
-        <v>40.83847909234215</v>
+        <v>40.7803035880487</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.047664395590008</v>
       </c>
       <c r="H25">
-        <v>28.50808574843669</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>12.20580064657267</v>
+        <v>28.66032556835589</v>
       </c>
       <c r="J25">
-        <v>20.94523199649648</v>
+        <v>12.35291809061604</v>
       </c>
       <c r="K25">
-        <v>14.2848398415733</v>
+        <v>20.79983237755905</v>
       </c>
       <c r="L25">
+        <v>14.27563898800304</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.68252231747423</v>
+        <v>24.3166509980134</v>
       </c>
       <c r="C2">
-        <v>16.53548231568307</v>
+        <v>13.41781846278872</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.271671377804326</v>
+        <v>5.514748694597904</v>
       </c>
       <c r="F2">
-        <v>37.28556827574443</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.06560005276341</v>
+        <v>2.127017149879794</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.05723457118947</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>12.05416905694904</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>18.92180952932988</v>
+        <v>19.77111573876551</v>
       </c>
       <c r="L2">
-        <v>13.0756628849502</v>
+        <v>6.205243134915601</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14.36632265499645</v>
+      </c>
+      <c r="N2">
+        <v>17.03794106868832</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.19272012025462</v>
+        <v>22.93297622002358</v>
       </c>
       <c r="C3">
-        <v>15.31751087145171</v>
+        <v>12.43220192482621</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.716882167072894</v>
+        <v>5.474794758076934</v>
       </c>
       <c r="F3">
-        <v>34.86632528981563</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.077958700779812</v>
+        <v>2.1395979583014</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.98564741401086</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11.87372255566712</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>17.57111050193055</v>
+        <v>18.64432936922819</v>
       </c>
       <c r="L3">
-        <v>12.2134505536098</v>
+        <v>6.138970836240925</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.85613368033877</v>
+      </c>
+      <c r="N3">
+        <v>17.12903736415221</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.2330373433034</v>
+        <v>22.06526407421469</v>
       </c>
       <c r="C4">
-        <v>14.5354641965462</v>
+        <v>11.79900673065763</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.360266181429491</v>
+        <v>5.450980452033808</v>
       </c>
       <c r="F4">
-        <v>33.33408631197713</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.085676822761282</v>
+        <v>2.14747002265566</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>25.33518232526755</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>11.7726555008163</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>16.70169560767119</v>
+        <v>17.93815621955727</v>
       </c>
       <c r="L4">
-        <v>11.65914457591838</v>
+        <v>6.101629637323998</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>13.54617626328834</v>
+      </c>
+      <c r="N4">
+        <v>17.19091137145346</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.83042743273869</v>
+        <v>21.70736738493471</v>
       </c>
       <c r="C5">
-        <v>14.20795967061956</v>
+        <v>11.53376007601535</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.210909163241386</v>
+        <v>5.441429642829196</v>
       </c>
       <c r="F5">
-        <v>32.69811935106485</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>2.088858594090452</v>
+        <v>2.15071872094674</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>25.07207481565529</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>11.73375745896642</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>16.33710277733888</v>
+        <v>17.64699313853039</v>
       </c>
       <c r="L5">
-        <v>11.42690747077956</v>
+        <v>6.087234054425595</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.42079121269773</v>
+      </c>
+      <c r="N5">
+        <v>17.21754236748706</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.76287146595227</v>
+        <v>21.6476888601661</v>
       </c>
       <c r="C6">
-        <v>14.153039595664</v>
+        <v>11.48927568082605</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.185864748740764</v>
+        <v>5.439852293154459</v>
       </c>
       <c r="F6">
-        <v>32.59182770216142</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>2.089389241558721</v>
+        <v>2.151260729286381</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>25.02850748888287</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>11.72743212690654</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>16.27593422840378</v>
+        <v>17.59844848719421</v>
       </c>
       <c r="L6">
-        <v>11.38795866572312</v>
+        <v>6.084892669178872</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.40003007881173</v>
+      </c>
+      <c r="N6">
+        <v>17.22204789216057</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.22765458880162</v>
+        <v>22.06045433808324</v>
       </c>
       <c r="C7">
-        <v>14.53108331125477</v>
+        <v>11.79545894505925</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.358268241930435</v>
+        <v>5.450851057407183</v>
       </c>
       <c r="F7">
-        <v>33.32555589814166</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>2.085719580234874</v>
+        <v>2.147513666005982</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>25.3316258908907</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>11.77212185032497</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>16.69682056244275</v>
+        <v>17.93424289286673</v>
       </c>
       <c r="L7">
-        <v>11.65603837501173</v>
+        <v>6.101432195876363</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>13.54448139348484</v>
+      </c>
+      <c r="N7">
+        <v>17.19126488577957</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.1780203568709</v>
+        <v>23.84345120999514</v>
       </c>
       <c r="C8">
-        <v>16.12249123362408</v>
+        <v>13.08368840745567</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.083680915198</v>
+        <v>5.500806640682838</v>
       </c>
       <c r="F8">
-        <v>36.46120800918886</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.069836840115176</v>
+        <v>2.131326757367981</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>26.68623021482459</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>11.98983433058181</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>18.46426879218576</v>
+        <v>19.38567426113597</v>
       </c>
       <c r="L8">
-        <v>12.78348086283594</v>
+        <v>6.181684138651351</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.18977601812474</v>
+      </c>
+      <c r="N8">
+        <v>17.06806933176313</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.65762039164848</v>
+        <v>27.18941830437874</v>
       </c>
       <c r="C9">
-        <v>18.98255875708799</v>
+        <v>15.39594628412744</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.38097287564736</v>
+        <v>5.605840174930061</v>
       </c>
       <c r="F9">
-        <v>42.39059524484816</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>2.039522258635647</v>
+        <v>2.100566854066283</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.40117747976451</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>12.5015515048345</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>21.62317842368765</v>
+        <v>22.1131083102459</v>
       </c>
       <c r="L9">
-        <v>14.80183778355166</v>
+        <v>6.366649880639316</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.47829213006096</v>
+      </c>
+      <c r="N9">
+        <v>16.87753221335429</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.02168140692012</v>
+        <v>29.55396900788836</v>
       </c>
       <c r="C10">
-        <v>20.94194896910582</v>
+        <v>16.97747065457419</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.26086630836562</v>
+        <v>5.689555767349828</v>
       </c>
       <c r="F10">
-        <v>46.62285095946041</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>2.017439245283534</v>
+        <v>2.078270230637707</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.43516484620071</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>12.94072058107388</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>23.77397058145528</v>
+        <v>24.30168409544986</v>
       </c>
       <c r="L10">
-        <v>16.17583957745349</v>
+        <v>6.520908919352407</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.43690085735079</v>
+      </c>
+      <c r="N10">
+        <v>16.77490390542093</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.06003054392013</v>
+        <v>30.631072581738</v>
       </c>
       <c r="C11">
-        <v>21.80699604308536</v>
+        <v>17.67489231673996</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.64622654559327</v>
+        <v>5.729671753396346</v>
       </c>
       <c r="F11">
-        <v>48.49402267816669</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>2.007349467525123</v>
+        <v>2.068114514310802</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>32.37141393043761</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>13.15716171492365</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>24.71994135599576</v>
+        <v>25.28452019843858</v>
       </c>
       <c r="L11">
-        <v>16.77960073531785</v>
+        <v>6.59547137123351</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16.87580530839712</v>
+      </c>
+      <c r="N11">
+        <v>16.73798562488371</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.44834817185571</v>
+        <v>31.06299022328253</v>
       </c>
       <c r="C12">
-        <v>22.13122788165307</v>
+        <v>17.9361533930323</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.79010995193225</v>
+        <v>5.745216884562685</v>
       </c>
       <c r="F12">
-        <v>49.19548815149358</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>2.00351395838662</v>
+        <v>2.064259263393244</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>32.72785351628021</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>13.24180293404903</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>25.07392535536981</v>
+        <v>25.65263129667517</v>
       </c>
       <c r="L12">
-        <v>17.00540216050074</v>
+        <v>6.624376618657994</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>17.04248313880435</v>
+      </c>
+      <c r="N12">
+        <v>16.72557467277239</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.36492630926421</v>
+        <v>30.97014785954175</v>
       </c>
       <c r="C13">
-        <v>22.06153970449478</v>
+        <v>17.88000656579004</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.75921121686981</v>
+        <v>5.741852113909372</v>
       </c>
       <c r="F13">
-        <v>49.04471885710412</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.004340807472036</v>
+        <v>2.065090117920977</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>32.65099682661494</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>13.22344975962616</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>24.99786935766728</v>
+        <v>25.57352602370673</v>
       </c>
       <c r="L13">
-        <v>16.95689357210873</v>
+        <v>6.618120862043456</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>17.00656342224258</v>
+      </c>
+      <c r="N13">
+        <v>16.72817491327858</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.09207271456114</v>
+        <v>30.66668794667223</v>
       </c>
       <c r="C14">
-        <v>21.83373503028799</v>
+        <v>17.69644122671255</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.6581042519439</v>
+        <v>5.730943171925169</v>
       </c>
       <c r="F14">
-        <v>48.55187073775304</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>2.007034266051167</v>
+        <v>2.067797578996518</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>32.40069802356249</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>13.16406971198167</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>24.74914600699807</v>
+        <v>25.31488399072321</v>
       </c>
       <c r="L14">
-        <v>16.79823281647527</v>
+        <v>6.597835747110048</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>16.88950793789935</v>
+      </c>
+      <c r="N14">
+        <v>16.73693208753375</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.92432059929596</v>
+        <v>30.48027870913321</v>
       </c>
       <c r="C15">
-        <v>21.69377693370411</v>
+        <v>17.58364325123999</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.59591037551347</v>
+        <v>5.724309258224303</v>
       </c>
       <c r="F15">
-        <v>48.24908389594924</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>2.008681896660987</v>
+        <v>2.069454492434533</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.24764215803555</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>13.12805585622925</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>24.59625815773667</v>
+        <v>25.15594114839377</v>
       </c>
       <c r="L15">
-        <v>16.70068746171535</v>
+        <v>6.585499060464794</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>16.81787262287594</v>
+      </c>
+      <c r="N15">
+        <v>16.74250577394963</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.95311368648044</v>
+        <v>29.48454167054247</v>
       </c>
       <c r="C16">
-        <v>20.88492299043225</v>
+        <v>16.93147645029225</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.2353902292604</v>
+        <v>5.686980041505717</v>
       </c>
       <c r="F16">
-        <v>46.49953124435199</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.018097061896479</v>
+        <v>2.078933043784029</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.37422470784846</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>12.92693421099974</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>23.71153177227502</v>
+        <v>24.23686175079715</v>
       </c>
       <c r="L16">
-        <v>16.13597301570782</v>
+        <v>6.516127587248335</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.40827907813757</v>
+      </c>
+      <c r="N16">
+        <v>16.77752667534137</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.34811326558235</v>
+        <v>28.87401918784637</v>
       </c>
       <c r="C17">
-        <v>20.38227477891868</v>
+        <v>16.52597269084361</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.01046979722492</v>
+        <v>5.66464119572154</v>
       </c>
       <c r="F17">
-        <v>45.41281692614328</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>2.023856107769709</v>
+        <v>2.084739442813671</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.84141756103869</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>12.80800894141001</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>23.16075958735556</v>
+        <v>23.66535868601462</v>
       </c>
       <c r="L17">
-        <v>15.78424135871591</v>
+        <v>6.474720306208937</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16.15776514494662</v>
+      </c>
+      <c r="N17">
+        <v>16.80162227898507</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.99661308200874</v>
+        <v>28.52107328709588</v>
       </c>
       <c r="C18">
-        <v>20.09066053847133</v>
+        <v>16.29064258922693</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.87969133148108</v>
+        <v>5.651979607587476</v>
       </c>
       <c r="F18">
-        <v>44.78262707752815</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>2.027164981371928</v>
+        <v>2.088078439022426</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.53596840422229</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>12.74115529370916</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>22.84088792300717</v>
+        <v>23.33370375476243</v>
       </c>
       <c r="L18">
-        <v>15.5799159339973</v>
+        <v>6.451314402000387</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16.01393576359887</v>
+      </c>
+      <c r="N18">
+        <v>16.81638964377397</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.87698398084826</v>
+        <v>28.40125865106782</v>
       </c>
       <c r="C19">
-        <v>19.991482589579</v>
+        <v>16.21059475519165</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.83516704746542</v>
+        <v>5.647723040305633</v>
       </c>
       <c r="F19">
-        <v>44.56835442268639</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>2.028284928910147</v>
+        <v>2.089209061757299</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.4327135954731</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>12.71877786566061</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>22.73204344423886</v>
+        <v>23.22089521889959</v>
       </c>
       <c r="L19">
-        <v>15.5103817195115</v>
+        <v>6.44345898225703</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15.96528086639518</v>
+      </c>
+      <c r="N19">
+        <v>16.8215409796103</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.4128778519543</v>
+        <v>28.93919409219669</v>
       </c>
       <c r="C20">
-        <v>20.43603876558925</v>
+        <v>16.56935385466261</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.03455824578862</v>
+        <v>5.666999424156815</v>
       </c>
       <c r="F20">
-        <v>45.5290271013397</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>2.023243474242976</v>
+        <v>2.084121464987009</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.89802955110961</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>12.82050649954262</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>23.21970629810651</v>
+        <v>23.72649801529952</v>
       </c>
       <c r="L20">
-        <v>15.8218911686504</v>
+        <v>6.479085439071164</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16.1844055672512</v>
+      </c>
+      <c r="N20">
+        <v>16.79896214926951</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.17234503274764</v>
+        <v>30.75593140052909</v>
       </c>
       <c r="C21">
-        <v>21.90073367250954</v>
+        <v>17.75043295355526</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.68785641107687</v>
+        <v>5.734137236796001</v>
       </c>
       <c r="F21">
-        <v>48.69681898876393</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.006243605446713</v>
+        <v>2.067002656819216</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>32.47416204622662</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>13.18143586545594</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>24.82231326186961</v>
+        <v>25.39096040915108</v>
       </c>
       <c r="L21">
-        <v>16.84491010649213</v>
+        <v>6.603775447802388</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>16.92387633260184</v>
+      </c>
+      <c r="N21">
+        <v>16.73431586973123</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.29405844716121</v>
+        <v>32.00579125317033</v>
       </c>
       <c r="C22">
-        <v>22.83876868363376</v>
+        <v>18.50598823965275</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.10296954739107</v>
+        <v>5.780116544394647</v>
       </c>
       <c r="F22">
-        <v>50.72614799475361</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>1.995042405897209</v>
+        <v>2.055754685897548</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.51558421546586</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>13.43310895165636</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>25.84527633666666</v>
+        <v>26.45530376121801</v>
       </c>
       <c r="L22">
-        <v>17.49715294962385</v>
+        <v>6.68919655810768</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>17.40999323266999</v>
+      </c>
+      <c r="N22">
+        <v>16.70130752458725</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.69779262451157</v>
+        <v>31.34077523305971</v>
       </c>
       <c r="C23">
-        <v>22.33971760563723</v>
+        <v>18.10410789818193</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.88246276416922</v>
+        <v>5.755360920688095</v>
       </c>
       <c r="F23">
-        <v>49.64654902742082</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>2.001032152869</v>
+        <v>2.061766266408271</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.95858195894238</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>13.29723612022139</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>25.30137762445149</v>
+        <v>25.88924634816542</v>
       </c>
       <c r="L23">
-        <v>17.15044935590338</v>
+        <v>6.643231479534399</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>17.15024987290245</v>
+      </c>
+      <c r="N23">
+        <v>16.71801795766957</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.38360926959247</v>
+        <v>28.90973460405701</v>
       </c>
       <c r="C24">
-        <v>20.41174030694708</v>
+        <v>16.54974810900287</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.02367244016117</v>
+        <v>5.665932708823334</v>
       </c>
       <c r="F24">
-        <v>45.47650542252703</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>2.023520451721761</v>
+        <v>2.084400849647545</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.87243258723788</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>12.81485164590722</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>23.19306656806065</v>
+        <v>23.69886657800273</v>
       </c>
       <c r="L24">
-        <v>15.80487627922902</v>
+        <v>6.477110720391606</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16.17236083123976</v>
+      </c>
+      <c r="N24">
+        <v>16.80016195767507</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.75150767012424</v>
+        <v>26.3009056109156</v>
       </c>
       <c r="C25">
-        <v>18.23511474522497</v>
+        <v>14.79206049301762</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.04315925410896</v>
+        <v>5.576457920990284</v>
       </c>
       <c r="F25">
-        <v>40.7803035880487</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.047664395590008</v>
+        <v>2.108811362202627</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.66032556835589</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>12.35291809061604</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>20.79983237755905</v>
+        <v>21.38839837003072</v>
       </c>
       <c r="L25">
-        <v>14.27563898800304</v>
+        <v>6.313507605014205</v>
       </c>
       <c r="M25">
+        <v>15.12757149690957</v>
+      </c>
+      <c r="N25">
+        <v>16.92301900911043</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.3166509980134</v>
+        <v>19.8048601328898</v>
       </c>
       <c r="C2">
-        <v>13.41781846278872</v>
+        <v>10.86698670481992</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.514748694597904</v>
+        <v>7.252438125860142</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.127017149879794</v>
+        <v>17.47955233000534</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.311592547908938</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.03564582925493</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.77111573876551</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.205243134915601</v>
+        <v>7.10616566228298</v>
       </c>
       <c r="M2">
-        <v>14.36632265499645</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>17.03794106868832</v>
+        <v>11.95151943083126</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.49062722742088</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.93297622002358</v>
+        <v>18.50784117169416</v>
       </c>
       <c r="C3">
-        <v>12.43220192482621</v>
+        <v>10.52249039881161</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>5.474794758076934</v>
+        <v>7.256843970619991</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.1395979583014</v>
+        <v>16.92856287717441</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.3485000089241</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.22575118361443</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.64432936922819</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.138970836240925</v>
+        <v>6.852870799206682</v>
       </c>
       <c r="M3">
-        <v>13.85613368033877</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>17.12903736415221</v>
+        <v>11.97538315314696</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.42584176928987</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.06526407421469</v>
+        <v>17.66321667677228</v>
       </c>
       <c r="C4">
-        <v>11.79900673065763</v>
+        <v>10.30496203248352</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5.450980452033808</v>
+        <v>7.264867833490171</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.14747002265566</v>
+        <v>16.60710257844829</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.376668771956828</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.3528584247187</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.93815621955727</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.101629637323998</v>
+        <v>6.695688306519222</v>
       </c>
       <c r="M4">
-        <v>13.54617626328834</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>17.19091137145346</v>
+        <v>11.99364588629883</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.39835489966981</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.70736738493471</v>
+        <v>17.30685340495512</v>
       </c>
       <c r="C5">
-        <v>11.53376007601535</v>
+        <v>10.21490558279189</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5.441429642829196</v>
+        <v>7.269436460004849</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.15071872094674</v>
+        <v>16.48049142245909</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.38948039987202</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>11.4071465954637</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.64699313853039</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.087234054425595</v>
+        <v>6.631315135842978</v>
       </c>
       <c r="M5">
-        <v>13.42079121269773</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>17.21754236748706</v>
+        <v>12.00197792990096</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.39014312808604</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.6476888601661</v>
+        <v>17.24694334544668</v>
       </c>
       <c r="C6">
-        <v>11.48927568082605</v>
+        <v>10.19986956319904</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>5.439852293154459</v>
+        <v>7.270272380500926</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.151260729286381</v>
+        <v>16.4597366563073</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.391686743854977</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>11.41630823390248</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.59844848719421</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.084892669178872</v>
+        <v>6.62060968375924</v>
       </c>
       <c r="M6">
-        <v>13.40003007881173</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>17.22204789216057</v>
+        <v>12.00341468706888</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.38895701341114</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.06045433808324</v>
+        <v>17.65845996962656</v>
       </c>
       <c r="C7">
-        <v>11.79545894505925</v>
+        <v>10.30375307945041</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.450851057407183</v>
+        <v>7.26492424017513</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.147513666005982</v>
+        <v>16.60537711171795</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.376836226437952</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.35358063942017</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.93424289286673</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.101432195876363</v>
+        <v>6.694821309064666</v>
       </c>
       <c r="M7">
-        <v>13.54448139348484</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>17.19126488577957</v>
+        <v>11.99375467563184</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.39823218842134</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.84345120999514</v>
+        <v>19.36763717131312</v>
       </c>
       <c r="C8">
-        <v>13.08368840745567</v>
+        <v>10.74950715368433</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.500806640682838</v>
+        <v>7.252830427317802</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.131326757367981</v>
+        <v>17.28616910781342</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.323143373703307</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.09896444640832</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.38567426113597</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.181684138651351</v>
+        <v>7.019229417075758</v>
       </c>
       <c r="M8">
-        <v>14.18977601812474</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>17.06806933176313</v>
+        <v>11.95898731151392</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.4656793544009</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.18941830437874</v>
+        <v>22.3384847215181</v>
       </c>
       <c r="C9">
-        <v>15.39594628412744</v>
+        <v>11.57212280795985</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5.605840174930061</v>
+        <v>7.272991951406799</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.100566854066283</v>
+        <v>18.74763972543554</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.263945583867894</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10.68791941240169</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.1131083102459</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.366649880639316</v>
+        <v>7.638411087466148</v>
       </c>
       <c r="M9">
-        <v>15.47829213006096</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>16.87753221335429</v>
+        <v>11.92029259258858</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>11.69959029408981</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.55396900788836</v>
+        <v>24.29201510945824</v>
       </c>
       <c r="C10">
-        <v>16.97747065457419</v>
+        <v>12.14059274011773</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>5.689555767349828</v>
+        <v>7.316760539009408</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.078270230637707</v>
+        <v>19.8884499996344</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.251903641622722</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.44863676232004</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.30168409544986</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.520908919352407</v>
+        <v>8.078493693078123</v>
       </c>
       <c r="M10">
-        <v>16.43690085735079</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>16.77490390542093</v>
+        <v>11.91103414130813</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>11.93838759036548</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.631072581738</v>
+        <v>25.13167529604884</v>
       </c>
       <c r="C11">
-        <v>17.67489231673996</v>
+        <v>12.39063073633261</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>5.729671753396346</v>
+        <v>7.34340243831663</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.068114514310802</v>
+        <v>20.41994736598786</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.253990383669108</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.35557686685079</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.28452019843858</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>6.59547137123351</v>
+        <v>8.27471345916506</v>
       </c>
       <c r="M11">
-        <v>16.87580530839712</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>16.73798562488371</v>
+        <v>11.91125547664537</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>12.06242635452308</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.06299022328253</v>
+        <v>25.44264432525886</v>
       </c>
       <c r="C12">
-        <v>17.9361533930323</v>
+        <v>12.48402833243421</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>5.745216884562685</v>
+        <v>7.354492891729623</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.064259263393244</v>
+        <v>20.62285861178617</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.255929592026611</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.3228066481312</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.65263129667517</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>6.624376618657994</v>
+        <v>8.348392862241349</v>
       </c>
       <c r="M12">
-        <v>17.04248313880435</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>16.72557467277239</v>
+        <v>11.91199988019995</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>12.11166979522927</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.97014785954175</v>
+        <v>25.37598164530418</v>
       </c>
       <c r="C13">
-        <v>17.88000656579004</v>
+        <v>12.46397149897077</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>5.741852113909372</v>
+        <v>7.352059292752472</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.065090117920977</v>
+        <v>20.57908722678875</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.255459868968209</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.32975115630886</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.57352602370673</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>6.618120862043456</v>
+        <v>8.332553226866201</v>
       </c>
       <c r="M13">
-        <v>17.00656342224258</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>16.72817491327858</v>
+        <v>11.91180980396961</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>12.10096245308005</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.66668794667223</v>
+        <v>25.15739871012091</v>
       </c>
       <c r="C14">
-        <v>17.69644122671255</v>
+        <v>12.39834068270058</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.730943171925169</v>
+        <v>7.344294593093581</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.067797578996518</v>
+        <v>20.43660887764756</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.254126544128453</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.35283016048583</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.31488399072321</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>6.597835747110048</v>
+        <v>8.280787903301272</v>
       </c>
       <c r="M14">
-        <v>16.88950793789935</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>16.73693208753375</v>
+        <v>11.91130334502181</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>12.06643180116479</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.48027870913321</v>
+        <v>25.02260146655198</v>
       </c>
       <c r="C15">
-        <v>17.58364325123999</v>
+        <v>12.35797088128291</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>5.724309258224303</v>
+        <v>7.339669918752137</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.069454492434533</v>
+        <v>20.34954656712085</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.253461300179466</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.36729445869219</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.15594114839377</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.585499060464794</v>
+        <v>8.248997354000133</v>
       </c>
       <c r="M15">
-        <v>16.81787262287594</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>16.74250577394963</v>
+        <v>11.91107985082401</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.04557827903179</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.48454167054247</v>
+        <v>24.23615982488799</v>
       </c>
       <c r="C16">
-        <v>16.93147645029225</v>
+        <v>12.12407499131069</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>5.686980041505717</v>
+        <v>7.315157809283857</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.078933043784029</v>
+        <v>19.85395378200013</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.251924714046999</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.45505288320875</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.23686175079715</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.516127587248335</v>
+        <v>8.065585538843678</v>
       </c>
       <c r="M16">
-        <v>16.40827907813757</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>16.77752667534137</v>
+        <v>11.91111084113696</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>11.93059650217689</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.87401918784637</v>
+        <v>23.74118940877251</v>
       </c>
       <c r="C17">
-        <v>16.52597269084361</v>
+        <v>11.97835284382176</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>5.66464119572154</v>
+        <v>7.301869089147921</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.084739442813671</v>
+        <v>19.5530170993628</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.252963005639991</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>10.51307139460561</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.66535868601462</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.474720306208937</v>
+        <v>7.952009582940836</v>
       </c>
       <c r="M17">
-        <v>16.15776514494662</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>16.80162227898507</v>
+        <v>11.9122814902013</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>11.8640488693332</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.52107328709588</v>
+        <v>23.4518789363953</v>
       </c>
       <c r="C18">
-        <v>16.29064258922693</v>
+        <v>11.89373423580533</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>5.651979607587476</v>
+        <v>7.29485744504677</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.088078439022426</v>
+        <v>19.38111488443666</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.254268536916681</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>10.54791567016647</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.33370375476243</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.451314402000387</v>
+        <v>7.886312079500684</v>
       </c>
       <c r="M18">
-        <v>16.01393576359887</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>16.81638964377397</v>
+        <v>11.91337064974574</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>11.8272199703281</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.40125865106782</v>
+        <v>23.35312882231147</v>
       </c>
       <c r="C19">
-        <v>16.21059475519165</v>
+        <v>11.86494770586869</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>5.647723040305633</v>
+        <v>7.292590855014651</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.089209061757299</v>
+        <v>19.3231209773559</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.254830364760635</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>10.55996059556616</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.22089521889959</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.44345898225703</v>
+        <v>7.864005961044765</v>
       </c>
       <c r="M19">
-        <v>15.96528086639518</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>16.8215409796103</v>
+        <v>11.91381014726746</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>11.81499706857687</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.93919409219669</v>
+        <v>23.79435725733132</v>
       </c>
       <c r="C20">
-        <v>16.56935385466261</v>
+        <v>11.99394875515458</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>5.666999424156815</v>
+        <v>7.30321806954822</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.084121464987009</v>
+        <v>19.58493050542202</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.252778725523852</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>10.5067413203543</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.72649801529952</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.479085439071164</v>
+        <v>7.964138808952013</v>
       </c>
       <c r="M20">
-        <v>16.1844055672512</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>16.79896214926951</v>
+        <v>11.91211367023769</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>11.87098272219358</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.75593140052909</v>
+        <v>25.22179112496847</v>
       </c>
       <c r="C21">
-        <v>17.75043295355526</v>
+        <v>12.41765335828793</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5.734137236796001</v>
+        <v>7.346547826321929</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.067002656819216</v>
+        <v>20.47841475938778</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.254486501080648</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.34598262254911</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.39096040915108</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>6.603775447802388</v>
+        <v>8.296009970827388</v>
       </c>
       <c r="M21">
-        <v>16.92387633260184</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>16.73431586973123</v>
+        <v>11.91143398830788</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>12.07651220326137</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.00579125317033</v>
+        <v>26.1139739664068</v>
       </c>
       <c r="C22">
-        <v>18.50598823965275</v>
+        <v>12.68705052146765</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>5.780116544394647</v>
+        <v>7.38071962958746</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>2.055754685897548</v>
+        <v>21.0718847232646</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.262328453413931</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.25541375530337</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.45530376121801</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>6.68919655810768</v>
+        <v>8.509246557814237</v>
       </c>
       <c r="M22">
-        <v>17.40999323266999</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>16.70130752458725</v>
+        <v>11.91485142918842</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>12.22410445355942</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.34077523305971</v>
+        <v>25.64150683393262</v>
       </c>
       <c r="C23">
-        <v>18.10410789818193</v>
+        <v>12.54397240835846</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.755360920688095</v>
+        <v>7.361935229983498</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.061766266408271</v>
+        <v>20.75431457538527</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.257507358229132</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.30235645290901</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.88924634816542</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>6.643231479534399</v>
+        <v>8.395788488065712</v>
       </c>
       <c r="M23">
-        <v>17.15024987290245</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>16.71801795766957</v>
+        <v>11.91266631087769</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>12.14410130007261</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.90973460405701</v>
+        <v>23.77033485800198</v>
       </c>
       <c r="C24">
-        <v>16.54974810900287</v>
+        <v>11.98690045891186</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>5.665932708823334</v>
+        <v>7.302606241331655</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.084400849647545</v>
+        <v>19.57049898400102</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.252859836056913</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>10.50959852496818</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.69886657800273</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.477110720391606</v>
+        <v>7.958656431322371</v>
       </c>
       <c r="M24">
-        <v>16.17236083123976</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>16.80016195767507</v>
+        <v>11.91218824720893</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>11.86784347691117</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.3009056109156</v>
+        <v>21.57526306497099</v>
       </c>
       <c r="C25">
-        <v>14.79206049301762</v>
+        <v>11.35559716834133</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>5.576457920990284</v>
+        <v>7.262607388105534</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.108811362202627</v>
+        <v>18.33976977457015</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.274683220796539</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>10.78879708678777</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.38839837003072</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.313507605014205</v>
+        <v>7.473221054404242</v>
       </c>
       <c r="M25">
-        <v>15.12757149690957</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>16.92301900911043</v>
+        <v>11.92748300588842</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.62487969236206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.8048601328898</v>
+        <v>13.52983389648876</v>
       </c>
       <c r="C2">
-        <v>10.86698670481992</v>
+        <v>10.75166404438965</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.252438125860142</v>
+        <v>11.98871058941985</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>17.47955233000534</v>
+        <v>21.46689239003918</v>
       </c>
       <c r="H2">
-        <v>7.311592547908938</v>
+        <v>12.43874642079204</v>
       </c>
       <c r="I2">
-        <v>11.03564582925493</v>
+        <v>19.00450643256271</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.10616566228298</v>
+        <v>9.560096254326819</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.95151943083126</v>
+        <v>16.48388625455781</v>
       </c>
       <c r="O2">
-        <v>11.49062722742088</v>
+        <v>17.95683166579544</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.50784117169416</v>
+        <v>12.98457987743057</v>
       </c>
       <c r="C3">
-        <v>10.52249039881161</v>
+        <v>10.63848543835829</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.256843970619991</v>
+        <v>12.02740444689617</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>16.92856287717441</v>
+        <v>21.48037086845421</v>
       </c>
       <c r="H3">
-        <v>7.3485000089241</v>
+        <v>12.48223220185984</v>
       </c>
       <c r="I3">
-        <v>11.22575118361443</v>
+        <v>19.10711238487939</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.852870799206682</v>
+        <v>9.531828542791331</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.97538315314696</v>
+        <v>16.50710719070581</v>
       </c>
       <c r="O3">
-        <v>11.42584176928987</v>
+        <v>18.0198959568959</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.66321667677228</v>
+        <v>12.63853139835659</v>
       </c>
       <c r="C4">
-        <v>10.30496203248352</v>
+        <v>10.56819884528809</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.264867833490171</v>
+        <v>12.05337888553044</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>16.60710257844829</v>
+        <v>21.49769717877561</v>
       </c>
       <c r="H4">
-        <v>7.376668771956828</v>
+        <v>12.51111672525247</v>
       </c>
       <c r="I4">
-        <v>11.3528584247187</v>
+        <v>19.17421343102896</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.695688306519222</v>
+        <v>9.516049571054596</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.99364588629883</v>
+        <v>16.52306604801823</v>
       </c>
       <c r="O4">
-        <v>11.39835489966981</v>
+        <v>18.06313823001819</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.30685340495512</v>
+        <v>12.49487753958265</v>
       </c>
       <c r="C5">
-        <v>10.21490558279189</v>
+        <v>10.53937602458751</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.269436460004849</v>
+        <v>12.06452062060916</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>16.48049142245909</v>
+        <v>21.50702595532251</v>
       </c>
       <c r="H5">
-        <v>7.38948039987202</v>
+        <v>12.52343632224611</v>
       </c>
       <c r="I5">
-        <v>11.4071465954637</v>
+        <v>19.20258835632179</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.631315135842978</v>
+        <v>9.510020980191065</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.00197792990096</v>
+        <v>16.52999794755721</v>
       </c>
       <c r="O5">
-        <v>11.39014312808604</v>
+        <v>18.08189326312125</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.24694334544668</v>
+        <v>12.470870873221</v>
       </c>
       <c r="C6">
-        <v>10.19986956319904</v>
+        <v>10.5345796850817</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.270272380500926</v>
+        <v>12.0664043243123</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>16.4597366563073</v>
+        <v>21.5087117170944</v>
       </c>
       <c r="H6">
-        <v>7.391686743854977</v>
+        <v>12.52551512697196</v>
       </c>
       <c r="I6">
-        <v>11.41630823390248</v>
+        <v>19.20736223181017</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.62060968375924</v>
+        <v>9.509044317587389</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.00341468706888</v>
+        <v>16.53117488923941</v>
       </c>
       <c r="O6">
-        <v>11.38895701341114</v>
+        <v>18.08507588176683</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.65845996962656</v>
+        <v>12.63660443102283</v>
       </c>
       <c r="C7">
-        <v>10.30375307945041</v>
+        <v>10.56781083570902</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.26492424017513</v>
+        <v>12.05352689231133</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>16.60537711171795</v>
+        <v>21.49781381793013</v>
       </c>
       <c r="H7">
-        <v>7.376836226437952</v>
+        <v>12.51128064947203</v>
       </c>
       <c r="I7">
-        <v>11.35358063942017</v>
+        <v>19.17459193242911</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.694821309064666</v>
+        <v>9.515966635788239</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.99375467563184</v>
+        <v>16.52315779789517</v>
       </c>
       <c r="O7">
-        <v>11.39823218842134</v>
+        <v>18.06338658206102</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.36763717131312</v>
+        <v>13.3442772501674</v>
       </c>
       <c r="C8">
-        <v>10.74950715368433</v>
+        <v>10.71281647977039</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.252830427317802</v>
+        <v>12.00159204189911</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>17.28616910781342</v>
+        <v>21.469657406898</v>
       </c>
       <c r="H8">
-        <v>7.323143373703307</v>
+        <v>12.45328684352069</v>
       </c>
       <c r="I8">
-        <v>11.09896444640832</v>
+        <v>19.03903363093264</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.019229417075758</v>
+        <v>9.550025115543798</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.95898731151392</v>
+        <v>16.49154023785339</v>
       </c>
       <c r="O8">
-        <v>11.4656793544009</v>
+        <v>17.97763606790891</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.3384847215181</v>
+        <v>14.63525995720682</v>
       </c>
       <c r="C9">
-        <v>11.57212280795985</v>
+        <v>10.99003270627679</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.272991951406799</v>
+        <v>11.91734810956468</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>18.74763972543554</v>
+        <v>21.48649106005578</v>
       </c>
       <c r="H9">
-        <v>7.263945583867894</v>
+        <v>12.35690340289024</v>
       </c>
       <c r="I9">
-        <v>10.68791941240169</v>
+        <v>18.80575939709204</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.638411087466148</v>
+        <v>9.629104581010742</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.92029259258858</v>
+        <v>16.44300183704827</v>
       </c>
       <c r="O9">
-        <v>11.69959029408981</v>
+        <v>17.84548890781045</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.29201510945824</v>
+        <v>15.5163076650511</v>
       </c>
       <c r="C10">
-        <v>12.14059274011773</v>
+        <v>11.188254113164</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.316760539009408</v>
+        <v>11.86620329988556</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>19.8884499996344</v>
+        <v>21.54294929985474</v>
       </c>
       <c r="H10">
-        <v>7.251903641622722</v>
+        <v>12.29667966720441</v>
       </c>
       <c r="I10">
-        <v>10.44863676232004</v>
+        <v>18.65424575283672</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.078493693078123</v>
+        <v>9.694372352774106</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.91103414130813</v>
+        <v>16.41550293504116</v>
       </c>
       <c r="O10">
-        <v>11.93838759036548</v>
+        <v>17.77053690571969</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.13167529604884</v>
+        <v>15.90106887217022</v>
       </c>
       <c r="C11">
-        <v>12.39063073633261</v>
+        <v>11.27702113471106</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.34340243831663</v>
+        <v>11.84527405481781</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>20.41994736598786</v>
+        <v>21.5781927199966</v>
       </c>
       <c r="H11">
-        <v>7.253990383669108</v>
+        <v>12.27158529150847</v>
       </c>
       <c r="I11">
-        <v>10.35557686685079</v>
+        <v>18.58964038271574</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.27471345916506</v>
+        <v>9.725544660153085</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.91125547664537</v>
+        <v>16.40475543108701</v>
       </c>
       <c r="O11">
-        <v>12.06242635452308</v>
+        <v>17.74128220559515</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.44264432525886</v>
+        <v>16.04436699175297</v>
       </c>
       <c r="C12">
-        <v>12.48402833243421</v>
+        <v>11.31041445200272</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.354492891729623</v>
+        <v>11.83768500731629</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>20.62285861178617</v>
+        <v>21.59290803252267</v>
       </c>
       <c r="H12">
-        <v>7.255929592026611</v>
+        <v>12.26241401866619</v>
       </c>
       <c r="I12">
-        <v>10.3228066481312</v>
+        <v>18.56579789074315</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.348392862241349</v>
+        <v>9.737554921022511</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.91199988019995</v>
+        <v>16.400938132047</v>
       </c>
       <c r="O12">
-        <v>12.11166979522927</v>
+        <v>17.73090308096554</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.37598164530418</v>
+        <v>16.01361343196833</v>
       </c>
       <c r="C13">
-        <v>12.46397149897077</v>
+        <v>11.3032327188839</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.352059292752472</v>
+        <v>11.83930447720553</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>20.57908722678875</v>
+        <v>21.58967803447036</v>
       </c>
       <c r="H13">
-        <v>7.255459868968209</v>
+        <v>12.26437446931125</v>
       </c>
       <c r="I13">
-        <v>10.32975115630886</v>
+        <v>18.57090510905902</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.332553226866201</v>
+        <v>9.734959250974095</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.91180980396961</v>
+        <v>16.40174903667108</v>
       </c>
       <c r="O13">
-        <v>12.10096245308005</v>
+        <v>17.73310728046133</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.15739871012091</v>
+        <v>15.91290675290105</v>
       </c>
       <c r="C14">
-        <v>12.39834068270058</v>
+        <v>11.27977295459825</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.344294593093581</v>
+        <v>11.84464295524606</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>20.43660887764756</v>
+        <v>21.57937595251331</v>
       </c>
       <c r="H14">
-        <v>7.254126544128453</v>
+        <v>12.27082412066838</v>
       </c>
       <c r="I14">
-        <v>10.35283016048583</v>
+        <v>18.58766637101279</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.280787903301272</v>
+        <v>9.726528664865013</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.91130334502181</v>
+        <v>16.40443632287421</v>
       </c>
       <c r="O14">
-        <v>12.06643180116479</v>
+        <v>17.74041428444233</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.02260146655198</v>
+        <v>15.85090547222894</v>
       </c>
       <c r="C15">
-        <v>12.35797088128291</v>
+        <v>11.26537386406808</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.339669918752137</v>
+        <v>11.84795674746335</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>20.34954656712085</v>
+        <v>21.57324376357547</v>
       </c>
       <c r="H15">
-        <v>7.253461300179466</v>
+        <v>12.27481789232889</v>
       </c>
       <c r="I15">
-        <v>10.36729445869219</v>
+        <v>18.59801418524116</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.248997354000133</v>
+        <v>9.721391297747278</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.91107985082401</v>
+        <v>16.40611522805531</v>
       </c>
       <c r="O15">
-        <v>12.04557827903179</v>
+        <v>17.74498114534793</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.23615982488799</v>
+        <v>15.49083137111737</v>
       </c>
       <c r="C16">
-        <v>12.12407499131069</v>
+        <v>11.18242309032195</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.315157809283857</v>
+        <v>11.86761813028676</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>19.85395378200013</v>
+        <v>21.54083803550678</v>
       </c>
       <c r="H16">
-        <v>7.251924714046999</v>
+        <v>12.29836599762036</v>
       </c>
       <c r="I16">
-        <v>10.45505288320875</v>
+        <v>18.65855486653215</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.065585538843678</v>
+        <v>9.692364385798532</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.91111084113696</v>
+        <v>16.4162406945639</v>
       </c>
       <c r="O16">
-        <v>11.93059650217689</v>
+        <v>17.77254643466192</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.74118940877251</v>
+        <v>15.26575760128384</v>
       </c>
       <c r="C17">
-        <v>11.97835284382176</v>
+        <v>11.13116211049912</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.301869089147921</v>
+        <v>11.88027853662919</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>19.5530170993628</v>
+        <v>21.52340376811867</v>
       </c>
       <c r="H17">
-        <v>7.252963005639991</v>
+        <v>12.31340183425502</v>
       </c>
       <c r="I17">
-        <v>10.51307139460561</v>
+        <v>18.69680156171637</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.952009582940836</v>
+        <v>9.674931864418049</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.9122814902013</v>
+        <v>16.42290303128233</v>
       </c>
       <c r="O17">
-        <v>11.8640488693332</v>
+        <v>17.79069889751346</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.4518789363953</v>
+        <v>15.13479696348698</v>
       </c>
       <c r="C18">
-        <v>11.89373423580533</v>
+        <v>11.10154700976583</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.29485744504677</v>
+        <v>11.88778039629048</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>19.38111488443666</v>
+        <v>21.51427637820022</v>
       </c>
       <c r="H18">
-        <v>7.254268536916681</v>
+        <v>12.32226667104718</v>
       </c>
       <c r="I18">
-        <v>10.54791567016647</v>
+        <v>18.71920649901396</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.886312079500684</v>
+        <v>9.665045043830105</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.91337064974574</v>
+        <v>16.42690091762563</v>
       </c>
       <c r="O18">
-        <v>11.8272199703281</v>
+        <v>17.80159524789795</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.35312882231147</v>
+        <v>15.09020080263581</v>
       </c>
       <c r="C19">
-        <v>11.86494770586869</v>
+        <v>11.09149790325935</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.292590855014651</v>
+        <v>11.89035815805374</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>19.3231209773559</v>
+        <v>21.5113407574045</v>
       </c>
       <c r="H19">
-        <v>7.254830364760635</v>
+        <v>12.32530534386481</v>
       </c>
       <c r="I19">
-        <v>10.55996059556616</v>
+        <v>18.72686220150882</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.864005961044765</v>
+        <v>9.661721775872978</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.91381014726746</v>
+        <v>16.42828304876734</v>
       </c>
       <c r="O19">
-        <v>11.81499706857687</v>
+        <v>17.8053627142271</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.79435725733132</v>
+        <v>15.28987351306039</v>
       </c>
       <c r="C20">
-        <v>11.99394875515458</v>
+        <v>11.13663263975556</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.30321806954822</v>
+        <v>11.87890805013267</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>19.58493050542202</v>
+        <v>21.52516652477843</v>
       </c>
       <c r="H20">
-        <v>7.252778725523852</v>
+        <v>12.31177882107801</v>
       </c>
       <c r="I20">
-        <v>10.5067413203543</v>
+        <v>18.69268806192233</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.964138808952013</v>
+        <v>9.67677315682398</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.91211367023769</v>
+        <v>16.42217665133867</v>
       </c>
       <c r="O20">
-        <v>11.87098272219358</v>
+        <v>17.78871936976624</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.22179112496847</v>
+        <v>15.94255265613</v>
       </c>
       <c r="C21">
-        <v>12.41765335828793</v>
+        <v>11.28666979652538</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.346547826321929</v>
+        <v>11.8430657821093</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>20.47841475938778</v>
+        <v>21.58236481387081</v>
       </c>
       <c r="H21">
-        <v>7.254486501080648</v>
+        <v>12.26892070352897</v>
       </c>
       <c r="I21">
-        <v>10.34598262254911</v>
+        <v>18.58272628775394</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.296009970827388</v>
+        <v>9.728999399831418</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.91143398830788</v>
+        <v>16.40364015425508</v>
       </c>
       <c r="O21">
-        <v>12.07651220326137</v>
+        <v>17.73824904827062</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.1139739664068</v>
+        <v>16.35507660186748</v>
       </c>
       <c r="C22">
-        <v>12.68705052146765</v>
+        <v>11.38343225384324</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.38071962958746</v>
+        <v>11.82160175569077</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>21.0718847232646</v>
+        <v>21.62772483342332</v>
       </c>
       <c r="H22">
-        <v>7.262328453413931</v>
+        <v>12.24284243060667</v>
       </c>
       <c r="I22">
-        <v>10.25541375530337</v>
+        <v>18.51448689070626</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.509246557814237</v>
+        <v>9.764329424087052</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.91485142918842</v>
+        <v>16.39299713259029</v>
       </c>
       <c r="O22">
-        <v>12.22410445355942</v>
+        <v>17.7093392175775</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.64150683393262</v>
+        <v>16.13621796146176</v>
       </c>
       <c r="C23">
-        <v>12.54397240835846</v>
+        <v>11.33191292393805</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.361935229983498</v>
+        <v>11.83287796595265</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>20.75431457538527</v>
+        <v>21.6027877996191</v>
       </c>
       <c r="H23">
-        <v>7.257507358229132</v>
+        <v>12.25658397507923</v>
       </c>
       <c r="I23">
-        <v>10.30235645290901</v>
+        <v>18.55057529188712</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.395788488065712</v>
+        <v>9.745365996647825</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.91266631087769</v>
+        <v>16.39854312977305</v>
       </c>
       <c r="O23">
-        <v>12.14410130007261</v>
+        <v>17.72439515728463</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.77033485800198</v>
+        <v>15.27897556936211</v>
       </c>
       <c r="C24">
-        <v>11.98690045891186</v>
+        <v>11.13415986208371</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.302606241331655</v>
+        <v>11.87952695179665</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>19.57049898400102</v>
+        <v>21.52436679177534</v>
       </c>
       <c r="H24">
-        <v>7.252859836056913</v>
+        <v>12.31251189841696</v>
       </c>
       <c r="I24">
-        <v>10.50959852496818</v>
+        <v>18.6945464781932</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.958656431322371</v>
+        <v>9.675940286340785</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.91218824720893</v>
+        <v>16.42250452552485</v>
       </c>
       <c r="O24">
-        <v>11.86784347691117</v>
+        <v>17.7896128808058</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.57526306497099</v>
+        <v>14.29732260586225</v>
       </c>
       <c r="C25">
-        <v>11.35559716834133</v>
+        <v>10.91591721842089</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.262607388105534</v>
+        <v>11.93825197447438</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>18.33976977457015</v>
+        <v>21.47419703928709</v>
       </c>
       <c r="H25">
-        <v>7.274683220796539</v>
+        <v>12.38111931793659</v>
       </c>
       <c r="I25">
-        <v>10.78879708678777</v>
+        <v>18.86537850860147</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.473221054404242</v>
+        <v>9.606427807574118</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.92748300588842</v>
+        <v>16.45469603067785</v>
       </c>
       <c r="O25">
-        <v>11.62487969236206</v>
+        <v>17.87736350009759</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.52983389648876</v>
+        <v>19.80486013288989</v>
       </c>
       <c r="C2">
-        <v>10.75166404438965</v>
+        <v>10.86698670481971</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.98871058941985</v>
+        <v>7.252438125860092</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>21.46689239003918</v>
+        <v>17.47955233000521</v>
       </c>
       <c r="H2">
-        <v>12.43874642079204</v>
+        <v>7.311592547908825</v>
       </c>
       <c r="I2">
-        <v>19.00450643256271</v>
+        <v>11.03564582925474</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.560096254326819</v>
+        <v>7.106165662282993</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.48388625455781</v>
+        <v>11.9515194308312</v>
       </c>
       <c r="O2">
-        <v>17.95683166579544</v>
+        <v>11.49062722742076</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.98457987743057</v>
+        <v>18.50784117169417</v>
       </c>
       <c r="C3">
-        <v>10.63848543835829</v>
+        <v>10.5224903988116</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.02740444689617</v>
+        <v>7.256843970619993</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>21.48037086845421</v>
+        <v>16.92856287717457</v>
       </c>
       <c r="H3">
-        <v>12.48223220185984</v>
+        <v>7.348500008924104</v>
       </c>
       <c r="I3">
-        <v>19.10711238487939</v>
+        <v>11.22575118361452</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.531828542791331</v>
+        <v>6.85287079920667</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.50710719070581</v>
+        <v>11.975383153147</v>
       </c>
       <c r="O3">
-        <v>18.0198959568959</v>
+        <v>11.42584176928995</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.63853139835659</v>
+        <v>17.66321667677228</v>
       </c>
       <c r="C4">
-        <v>10.56819884528809</v>
+        <v>10.30496203248352</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.05337888553044</v>
+        <v>7.264867833490174</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>21.49769717877561</v>
+        <v>16.60710257844817</v>
       </c>
       <c r="H4">
-        <v>12.51111672525247</v>
+        <v>7.376668771956832</v>
       </c>
       <c r="I4">
-        <v>19.17421343102896</v>
+        <v>11.35285842471861</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.516049571054596</v>
+        <v>6.695688306519252</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.52306604801823</v>
+        <v>11.99364588629873</v>
       </c>
       <c r="O4">
-        <v>18.06313823001819</v>
+        <v>11.39835489966979</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.49487753958265</v>
+        <v>17.30685340495505</v>
       </c>
       <c r="C5">
-        <v>10.53937602458751</v>
+        <v>10.2149055827921</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.06452062060916</v>
+        <v>7.269436460005029</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>21.50702595532251</v>
+        <v>16.48049142245912</v>
       </c>
       <c r="H5">
-        <v>12.52343632224611</v>
+        <v>7.389480399872076</v>
       </c>
       <c r="I5">
-        <v>19.20258835632179</v>
+        <v>11.40714659546383</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.510020980191065</v>
+        <v>6.631315135843015</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.52999794755721</v>
+        <v>12.00197792990096</v>
       </c>
       <c r="O5">
-        <v>18.08189326312125</v>
+        <v>11.39014312808612</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.470870873221</v>
+        <v>17.24694334544662</v>
       </c>
       <c r="C6">
-        <v>10.5345796850817</v>
+        <v>10.1998695631988</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.0664043243123</v>
+        <v>7.270272380500986</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>21.5087117170944</v>
+        <v>16.45973665630755</v>
       </c>
       <c r="H6">
-        <v>12.52551512697196</v>
+        <v>7.391686743855098</v>
       </c>
       <c r="I6">
-        <v>19.20736223181017</v>
+        <v>11.4163082339026</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.509044317587389</v>
+        <v>6.620609683759271</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.53117488923941</v>
+        <v>12.00341468706894</v>
       </c>
       <c r="O6">
-        <v>18.08507588176683</v>
+        <v>11.38895701341129</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.63660443102283</v>
+        <v>17.65845996962649</v>
       </c>
       <c r="C7">
-        <v>10.56781083570902</v>
+        <v>10.30375307945039</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.05352689231133</v>
+        <v>7.26492424017513</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>21.49781381793013</v>
+        <v>16.60537711171814</v>
       </c>
       <c r="H7">
-        <v>12.51128064947203</v>
+        <v>7.376836226438087</v>
       </c>
       <c r="I7">
-        <v>19.17459193242911</v>
+        <v>11.35358063942036</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.515966635788239</v>
+        <v>6.694821309064647</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.52315779789517</v>
+        <v>11.9937546756319</v>
       </c>
       <c r="O7">
-        <v>18.06338658206102</v>
+        <v>11.3982321884215</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.3442772501674</v>
+        <v>19.36763717131311</v>
       </c>
       <c r="C8">
-        <v>10.71281647977039</v>
+        <v>10.74950715368433</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.00159204189911</v>
+        <v>7.252830427317755</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>21.469657406898</v>
+        <v>17.28616910781348</v>
       </c>
       <c r="H8">
-        <v>12.45328684352069</v>
+        <v>7.323143373703365</v>
       </c>
       <c r="I8">
-        <v>19.03903363093264</v>
+        <v>11.09896444640842</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.550025115543798</v>
+        <v>7.019229417075701</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.49154023785339</v>
+        <v>11.95898731151398</v>
       </c>
       <c r="O8">
-        <v>17.97763606790891</v>
+        <v>11.46567935440097</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.63525995720682</v>
+        <v>22.33848472151812</v>
       </c>
       <c r="C9">
-        <v>10.99003270627679</v>
+        <v>11.57212280795992</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.91734810956468</v>
+        <v>7.272991951406843</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>21.48649106005578</v>
+        <v>18.74763972543558</v>
       </c>
       <c r="H9">
-        <v>12.35690340289024</v>
+        <v>7.263945583867905</v>
       </c>
       <c r="I9">
-        <v>18.80575939709204</v>
+        <v>10.68791941240169</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.629104581010742</v>
+        <v>7.638411087466161</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.44300183704827</v>
+        <v>11.92029259258854</v>
       </c>
       <c r="O9">
-        <v>17.84548890781045</v>
+        <v>11.6995902940898</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.5163076650511</v>
+        <v>24.29201510945821</v>
       </c>
       <c r="C10">
-        <v>11.188254113164</v>
+        <v>12.14059274011761</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.86620329988556</v>
+        <v>7.316760539009415</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>21.54294929985474</v>
+        <v>19.8884499996344</v>
       </c>
       <c r="H10">
-        <v>12.29667966720441</v>
+        <v>7.251903641622773</v>
       </c>
       <c r="I10">
-        <v>18.65424575283672</v>
+        <v>10.44863676232004</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.694372352774106</v>
+        <v>8.078493693078146</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.41550293504116</v>
+        <v>11.91103414130808</v>
       </c>
       <c r="O10">
-        <v>17.77053690571969</v>
+        <v>11.9383875903655</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.90106887217022</v>
+        <v>25.13167529604882</v>
       </c>
       <c r="C11">
-        <v>11.27702113471106</v>
+        <v>12.39063073633272</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.84527405481781</v>
+        <v>7.343402438316627</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>21.5781927199966</v>
+        <v>20.41994736598781</v>
       </c>
       <c r="H11">
-        <v>12.27158529150847</v>
+        <v>7.253990383669065</v>
       </c>
       <c r="I11">
-        <v>18.58964038271574</v>
+        <v>10.35557686685076</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.725544660153085</v>
+        <v>8.27471345916503</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.40475543108701</v>
+        <v>11.91125547664534</v>
       </c>
       <c r="O11">
-        <v>17.74128220559515</v>
+        <v>12.06242635452303</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.04436699175297</v>
+        <v>25.44264432525889</v>
       </c>
       <c r="C12">
-        <v>11.31041445200272</v>
+        <v>12.48402833243392</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.83768500731629</v>
+        <v>7.354492891729586</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>21.59290803252267</v>
+        <v>20.62285861178616</v>
       </c>
       <c r="H12">
-        <v>12.26241401866619</v>
+        <v>7.255929592026611</v>
       </c>
       <c r="I12">
-        <v>18.56579789074315</v>
+        <v>10.32280664813113</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.737554921022511</v>
+        <v>8.348392862241363</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.400938132047</v>
+        <v>11.91199988019992</v>
       </c>
       <c r="O12">
-        <v>17.73090308096554</v>
+        <v>12.11166979522927</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.01361343196833</v>
+        <v>25.3759816453042</v>
       </c>
       <c r="C13">
-        <v>11.3032327188839</v>
+        <v>12.46397149897066</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.83930447720553</v>
+        <v>7.352059292752433</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>21.58967803447036</v>
+        <v>20.57908722678872</v>
       </c>
       <c r="H13">
-        <v>12.26437446931125</v>
+        <v>7.255459868968156</v>
       </c>
       <c r="I13">
-        <v>18.57090510905902</v>
+        <v>10.32975115630877</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.734959250974095</v>
+        <v>8.332553226866194</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.40174903667108</v>
+        <v>11.91180980396955</v>
       </c>
       <c r="O13">
-        <v>17.73310728046133</v>
+        <v>12.10096245307997</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.91290675290105</v>
+        <v>25.1573987101209</v>
       </c>
       <c r="C14">
-        <v>11.27977295459825</v>
+        <v>12.39834068270057</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.84464295524606</v>
+        <v>7.344294593093531</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>21.57937595251331</v>
+        <v>20.43660887764759</v>
       </c>
       <c r="H14">
-        <v>12.27082412066838</v>
+        <v>7.254126544128457</v>
       </c>
       <c r="I14">
-        <v>18.58766637101279</v>
+        <v>10.35283016048583</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.726528664865013</v>
+        <v>8.280787903301242</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.40443632287421</v>
+        <v>11.91130334502178</v>
       </c>
       <c r="O14">
-        <v>17.74041428444233</v>
+        <v>12.0664318011648</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.85090547222894</v>
+        <v>25.02260146655204</v>
       </c>
       <c r="C15">
-        <v>11.26537386406808</v>
+        <v>12.3579708812829</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.84795674746335</v>
+        <v>7.339669918752087</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>21.57324376357547</v>
+        <v>20.34954656712081</v>
       </c>
       <c r="H15">
-        <v>12.27481789232889</v>
+        <v>7.253461300179423</v>
       </c>
       <c r="I15">
-        <v>18.59801418524116</v>
+        <v>10.36729445869209</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.721391297747278</v>
+        <v>8.24899735400014</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.40611522805531</v>
+        <v>11.91107985082398</v>
       </c>
       <c r="O15">
-        <v>17.74498114534793</v>
+        <v>12.04557827903174</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.49083137111737</v>
+        <v>24.23615982488797</v>
       </c>
       <c r="C16">
-        <v>11.18242309032195</v>
+        <v>12.12407499131069</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.86761813028676</v>
+        <v>7.315157809283816</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>21.54083803550678</v>
+        <v>19.8539537820001</v>
       </c>
       <c r="H16">
-        <v>12.29836599762036</v>
+        <v>7.251924714046999</v>
       </c>
       <c r="I16">
-        <v>18.65855486653215</v>
+        <v>10.4550528832087</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.692364385798532</v>
+        <v>8.065585538843651</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.4162406945639</v>
+        <v>11.9111108411369</v>
       </c>
       <c r="O16">
-        <v>17.77254643466192</v>
+        <v>11.93059650217688</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.26575760128384</v>
+        <v>23.74118940877251</v>
       </c>
       <c r="C17">
-        <v>11.13116211049912</v>
+        <v>11.97835284382192</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.88027853662919</v>
+        <v>7.301869089147928</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>21.52340376811867</v>
+        <v>19.55301709936277</v>
       </c>
       <c r="H17">
-        <v>12.31340183425502</v>
+        <v>7.25296300564011</v>
       </c>
       <c r="I17">
-        <v>18.69680156171637</v>
+        <v>10.51307139460563</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.674931864418049</v>
+        <v>7.952009582940827</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.42290303128233</v>
+        <v>11.91228149020126</v>
       </c>
       <c r="O17">
-        <v>17.79069889751346</v>
+        <v>11.8640488693332</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.13479696348698</v>
+        <v>23.45187893639527</v>
       </c>
       <c r="C18">
-        <v>11.10154700976583</v>
+        <v>11.89373423580524</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.88778039629048</v>
+        <v>7.29485744504677</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>21.51427637820022</v>
+        <v>19.38111488443666</v>
       </c>
       <c r="H18">
-        <v>12.32226667104718</v>
+        <v>7.254268536916722</v>
       </c>
       <c r="I18">
-        <v>18.71920649901396</v>
+        <v>10.54791567016651</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.665045043830105</v>
+        <v>7.886312079500686</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.42690091762563</v>
+        <v>11.91337064974574</v>
       </c>
       <c r="O18">
-        <v>17.80159524789795</v>
+        <v>11.82721997032812</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.09020080263581</v>
+        <v>23.35312882231149</v>
       </c>
       <c r="C19">
-        <v>11.09149790325935</v>
+        <v>11.8649477058685</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.89035815805374</v>
+        <v>7.292590855014561</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>21.5113407574045</v>
+        <v>19.32312097735582</v>
       </c>
       <c r="H19">
-        <v>12.32530534386481</v>
+        <v>7.254830364760595</v>
       </c>
       <c r="I19">
-        <v>18.72686220150882</v>
+        <v>10.55996059556606</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.661721775872978</v>
+        <v>7.864005961044739</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.42828304876734</v>
+        <v>11.91381014726739</v>
       </c>
       <c r="O19">
-        <v>17.8053627142271</v>
+        <v>11.81499706857678</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.28987351306039</v>
+        <v>23.79435725733131</v>
       </c>
       <c r="C20">
-        <v>11.13663263975556</v>
+        <v>11.99394875515447</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.87890805013267</v>
+        <v>7.303218069548222</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>21.52516652477843</v>
+        <v>19.58493050542205</v>
       </c>
       <c r="H20">
-        <v>12.31177882107801</v>
+        <v>7.252778725523888</v>
       </c>
       <c r="I20">
-        <v>18.69268806192233</v>
+        <v>10.50674132035436</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.67677315682398</v>
+        <v>7.964138808952001</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.42217665133867</v>
+        <v>11.91211367023769</v>
       </c>
       <c r="O20">
-        <v>17.78871936976624</v>
+        <v>11.87098272219361</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.94255265613</v>
+        <v>25.2217911249685</v>
       </c>
       <c r="C21">
-        <v>11.28666979652538</v>
+        <v>12.41765335828781</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.8430657821093</v>
+        <v>7.346547826321932</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>21.58236481387081</v>
+        <v>20.47841475938786</v>
       </c>
       <c r="H21">
-        <v>12.26892070352897</v>
+        <v>7.254486501080653</v>
       </c>
       <c r="I21">
-        <v>18.58272628775394</v>
+        <v>10.34598262254913</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.728999399831418</v>
+        <v>8.296009970827381</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.40364015425508</v>
+        <v>11.91143398830786</v>
       </c>
       <c r="O21">
-        <v>17.73824904827062</v>
+        <v>12.07651220326142</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.35507660186748</v>
+        <v>26.11397396640681</v>
       </c>
       <c r="C22">
-        <v>11.38343225384324</v>
+        <v>12.68705052146765</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.82160175569077</v>
+        <v>7.380719629587411</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>21.62772483342332</v>
+        <v>21.07188472326461</v>
       </c>
       <c r="H22">
-        <v>12.24284243060667</v>
+        <v>7.262328453413931</v>
       </c>
       <c r="I22">
-        <v>18.51448689070626</v>
+        <v>10.25541375530337</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.764329424087052</v>
+        <v>8.509246557814208</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.39299713259029</v>
+        <v>11.91485142918842</v>
       </c>
       <c r="O22">
-        <v>17.7093392175775</v>
+        <v>12.22410445355943</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.13621796146176</v>
+        <v>25.6415068339326</v>
       </c>
       <c r="C23">
-        <v>11.33191292393805</v>
+        <v>12.54397240835843</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.83287796595265</v>
+        <v>7.361935229983507</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>21.6027877996191</v>
+        <v>20.75431457538534</v>
       </c>
       <c r="H23">
-        <v>12.25658397507923</v>
+        <v>7.257507358229192</v>
       </c>
       <c r="I23">
-        <v>18.55057529188712</v>
+        <v>10.30235645290916</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.745365996647825</v>
+        <v>8.395788488065708</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.39854312977305</v>
+        <v>11.91266631087771</v>
       </c>
       <c r="O23">
-        <v>17.72439515728463</v>
+        <v>12.14410130007268</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.27897556936211</v>
+        <v>23.770334858002</v>
       </c>
       <c r="C24">
-        <v>11.13415986208371</v>
+        <v>11.98690045891183</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.87952695179665</v>
+        <v>7.302606241331562</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>21.52436679177534</v>
+        <v>19.57049898400092</v>
       </c>
       <c r="H24">
-        <v>12.31251189841696</v>
+        <v>7.252859836056906</v>
       </c>
       <c r="I24">
-        <v>18.6945464781932</v>
+        <v>10.50959852496808</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.675940286340785</v>
+        <v>7.958656431322314</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.42250452552485</v>
+        <v>11.91218824720887</v>
       </c>
       <c r="O24">
-        <v>17.7896128808058</v>
+        <v>11.86784347691108</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.29732260586225</v>
+        <v>21.57526306497099</v>
       </c>
       <c r="C25">
-        <v>10.91591721842089</v>
+        <v>11.35559716834141</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.93825197447438</v>
+        <v>7.262607388105789</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>21.47419703928709</v>
+        <v>18.33976977457025</v>
       </c>
       <c r="H25">
-        <v>12.38111931793659</v>
+        <v>7.274683220796588</v>
       </c>
       <c r="I25">
-        <v>18.86537850860147</v>
+        <v>10.78879708678786</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.606427807574118</v>
+        <v>7.473221054404276</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.45469603067785</v>
+        <v>11.92748300588845</v>
       </c>
       <c r="O25">
-        <v>17.87736350009759</v>
+        <v>11.62487969236212</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.80486013288989</v>
+        <v>13.02159591461674</v>
       </c>
       <c r="C2">
-        <v>10.86698670481971</v>
+        <v>6.65190047772323</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.252438125860092</v>
+        <v>7.022559659086765</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>17.47955233000521</v>
+        <v>30.41461370006239</v>
       </c>
       <c r="H2">
-        <v>7.311592547908825</v>
+        <v>3.182466359280599</v>
       </c>
       <c r="I2">
-        <v>11.03564582925474</v>
+        <v>3.84549290340967</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.14330964088859</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.08177073171268</v>
       </c>
       <c r="L2">
-        <v>7.106165662282993</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.52978473789143</v>
       </c>
       <c r="N2">
-        <v>11.9515194308312</v>
+        <v>6.357019507818289</v>
       </c>
       <c r="O2">
-        <v>11.49062722742076</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.999717614796785</v>
+      </c>
+      <c r="P2">
+        <v>14.09392159563763</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.50784117169417</v>
+        <v>12.24025263253131</v>
       </c>
       <c r="C3">
-        <v>10.5224903988116</v>
+        <v>6.34497832652089</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.256843970619993</v>
+        <v>6.85402746352433</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>16.92856287717457</v>
+        <v>30.06506646406061</v>
       </c>
       <c r="H3">
-        <v>7.348500008924104</v>
+        <v>3.367292118625746</v>
       </c>
       <c r="I3">
-        <v>11.22575118361452</v>
+        <v>3.999403485991471</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>11.15456755780813</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.08127864163379</v>
       </c>
       <c r="L3">
-        <v>6.85287079920667</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.877635448682573</v>
       </c>
       <c r="N3">
-        <v>11.975383153147</v>
+        <v>6.18545576116303</v>
       </c>
       <c r="O3">
-        <v>11.42584176928995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.634167720839855</v>
+      </c>
+      <c r="P3">
+        <v>14.23662254807716</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.66321667677228</v>
+        <v>11.73307647601326</v>
       </c>
       <c r="C4">
-        <v>10.30496203248352</v>
+        <v>6.150596464827846</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.264867833490174</v>
+        <v>6.747153482182862</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>16.60710257844817</v>
+        <v>29.85706729018473</v>
       </c>
       <c r="H4">
-        <v>7.376668771956832</v>
+        <v>3.484952226182466</v>
       </c>
       <c r="I4">
-        <v>11.35285842471861</v>
+        <v>4.098035686181633</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>11.16389082575324</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.08362464402915</v>
       </c>
       <c r="L4">
-        <v>6.695688306519252</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.453824311929319</v>
       </c>
       <c r="N4">
-        <v>11.99364588629873</v>
+        <v>6.077752341841588</v>
       </c>
       <c r="O4">
-        <v>11.39835489966979</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.402652962343289</v>
+      </c>
+      <c r="P4">
+        <v>14.32546674772809</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.30685340495505</v>
+        <v>11.51370149510887</v>
       </c>
       <c r="C5">
-        <v>10.2149055827921</v>
+        <v>6.073797715936639</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.269436460005029</v>
+        <v>6.7015342050068</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>16.48049142245912</v>
+        <v>29.75689406807382</v>
       </c>
       <c r="H5">
-        <v>7.389480399872076</v>
+        <v>3.534351345802652</v>
       </c>
       <c r="I5">
-        <v>11.40714659546383</v>
+        <v>4.141783345495216</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>11.1653003830684</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.07851587682581</v>
       </c>
       <c r="L5">
-        <v>6.631315135843015</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.273774505446635</v>
       </c>
       <c r="N5">
-        <v>12.00197792990096</v>
+        <v>6.033737999416767</v>
       </c>
       <c r="O5">
-        <v>11.39014312808612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.305055039381337</v>
+      </c>
+      <c r="P5">
+        <v>14.36086935430052</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.24694334544662</v>
+        <v>11.46965685720261</v>
       </c>
       <c r="C6">
-        <v>10.1998695631988</v>
+        <v>6.065722737085355</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.270272380500986</v>
+        <v>6.692407191289174</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>16.45973665630755</v>
+        <v>29.7194709087384</v>
       </c>
       <c r="H6">
-        <v>7.391686743855098</v>
+        <v>3.543091696020351</v>
       </c>
       <c r="I6">
-        <v>11.4163082339026</v>
+        <v>4.15230812761403</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>11.16192503771791</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.0695020722299</v>
       </c>
       <c r="L6">
-        <v>6.620609683759271</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.241719707132217</v>
       </c>
       <c r="N6">
-        <v>12.00341468706894</v>
+        <v>6.026926312159993</v>
       </c>
       <c r="O6">
-        <v>11.38895701341129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.286805316351385</v>
+      </c>
+      <c r="P6">
+        <v>14.36540394096019</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.65845996962649</v>
+        <v>11.71088036209207</v>
       </c>
       <c r="C7">
-        <v>10.30375307945039</v>
+        <v>6.162391180852151</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.26492424017513</v>
+        <v>6.742488302372686</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>16.60537711171814</v>
+        <v>29.7989174091222</v>
       </c>
       <c r="H7">
-        <v>7.376836226438087</v>
+        <v>3.486884634959387</v>
       </c>
       <c r="I7">
-        <v>11.35358063942036</v>
+        <v>4.107083212454087</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>11.15397917409552</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.06119581511375</v>
       </c>
       <c r="L7">
-        <v>6.694821309064647</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.446598370049712</v>
       </c>
       <c r="N7">
-        <v>11.9937546756319</v>
+        <v>6.078602246189496</v>
       </c>
       <c r="O7">
-        <v>11.3982321884215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.396093937888093</v>
+      </c>
+      <c r="P7">
+        <v>14.3222879026979</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.36763717131311</v>
+        <v>12.7342487290716</v>
       </c>
       <c r="C8">
-        <v>10.74950715368433</v>
+        <v>6.56346634082812</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.252830427317755</v>
+        <v>6.960014532395084</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>17.28616910781348</v>
+        <v>30.21894348780461</v>
       </c>
       <c r="H8">
-        <v>7.323143373703365</v>
+        <v>3.246925063314003</v>
       </c>
       <c r="I8">
-        <v>11.09896444640842</v>
+        <v>3.908437527932018</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.13367130184125</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.05172819099937</v>
       </c>
       <c r="L8">
-        <v>7.019229417075701</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.30384714553086</v>
       </c>
       <c r="N8">
-        <v>11.95898731151398</v>
+        <v>6.300261959293034</v>
       </c>
       <c r="O8">
-        <v>11.46567935440097</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.868566560289374</v>
+      </c>
+      <c r="P8">
+        <v>14.13835405631468</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.33848472151812</v>
+        <v>14.5514270320122</v>
       </c>
       <c r="C9">
-        <v>11.57212280795992</v>
+        <v>7.281037107575446</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.272991951406843</v>
+        <v>7.365953160957956</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>18.74763972543558</v>
+        <v>31.19390450412819</v>
       </c>
       <c r="H9">
-        <v>7.263945583867905</v>
+        <v>2.80675579157797</v>
       </c>
       <c r="I9">
-        <v>10.68791941240169</v>
+        <v>3.537337626421412</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.13118903549618</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.09446487196094</v>
       </c>
       <c r="L9">
-        <v>7.638411087466161</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.80696918670402</v>
       </c>
       <c r="N9">
-        <v>11.92029259258854</v>
+        <v>6.712118552666624</v>
       </c>
       <c r="O9">
-        <v>11.6995902940898</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.74345761856424</v>
+      </c>
+      <c r="P9">
+        <v>13.79280518533218</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.29201510945821</v>
+        <v>15.68940037431886</v>
       </c>
       <c r="C10">
-        <v>12.14059274011761</v>
+        <v>7.811465526318083</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.316760539009415</v>
+        <v>7.543352288431945</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>19.8884499996344</v>
+        <v>31.66003835421234</v>
       </c>
       <c r="H10">
-        <v>7.251903641622773</v>
+        <v>2.531520957141446</v>
       </c>
       <c r="I10">
-        <v>10.44863676232004</v>
+        <v>3.295075118698062</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.09140914962541</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.03244289823733</v>
       </c>
       <c r="L10">
-        <v>8.078493693078146</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.77777724998926</v>
       </c>
       <c r="N10">
-        <v>11.91103414130808</v>
+        <v>6.89895370196562</v>
       </c>
       <c r="O10">
-        <v>11.9383875903655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.25027748681281</v>
+      </c>
+      <c r="P10">
+        <v>13.52932270104614</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.13167529604882</v>
+        <v>15.70657585154012</v>
       </c>
       <c r="C11">
-        <v>12.39063073633272</v>
+        <v>8.304024376691759</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.343402438316627</v>
+        <v>6.883141494914049</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>20.41994736598781</v>
+        <v>29.60843071919787</v>
       </c>
       <c r="H11">
-        <v>7.253990383669065</v>
+        <v>3.326177317713605</v>
       </c>
       <c r="I11">
-        <v>10.35557686685076</v>
+        <v>3.255082355479531</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.66615203508081</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.15424394999731</v>
       </c>
       <c r="L11">
-        <v>8.27471345916503</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.03037328521721</v>
       </c>
       <c r="N11">
-        <v>11.91125547664534</v>
+        <v>6.147333857069913</v>
       </c>
       <c r="O11">
-        <v>12.06242635452303</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.67704334663297</v>
+      </c>
+      <c r="P11">
+        <v>13.32519697162429</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.44264432525889</v>
+        <v>15.50720048251508</v>
       </c>
       <c r="C12">
-        <v>12.48402833243392</v>
+        <v>8.605055208019563</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.354492891729586</v>
+        <v>6.523132603459008</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>20.62285861178616</v>
+        <v>27.85864795675553</v>
       </c>
       <c r="H12">
-        <v>7.255929592026611</v>
+        <v>4.556805474870251</v>
       </c>
       <c r="I12">
-        <v>10.32280664813113</v>
+        <v>3.251537554302879</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.33479795811095</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.48348378829099</v>
       </c>
       <c r="L12">
-        <v>8.348392862241363</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.05199105295237</v>
       </c>
       <c r="N12">
-        <v>11.91199988019992</v>
+        <v>5.545387263933049</v>
       </c>
       <c r="O12">
-        <v>12.11166979522927</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.09137369204229</v>
+      </c>
+      <c r="P12">
+        <v>13.24944128970779</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.3759816453042</v>
+        <v>15.09984382010221</v>
       </c>
       <c r="C13">
-        <v>12.46397149897066</v>
+        <v>8.799131843637808</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.352059292752433</v>
+        <v>6.395486253349596</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>20.57908722678872</v>
+        <v>26.14534481838344</v>
       </c>
       <c r="H13">
-        <v>7.255459868968156</v>
+        <v>5.898195581398941</v>
       </c>
       <c r="I13">
-        <v>10.32975115630877</v>
+        <v>3.289981318219026</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.04183553076064</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.90326928139553</v>
       </c>
       <c r="L13">
-        <v>8.332553226866194</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.89234011288577</v>
       </c>
       <c r="N13">
-        <v>11.91180980396955</v>
+        <v>5.045498453294321</v>
       </c>
       <c r="O13">
-        <v>12.10096245307997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.443697817449594</v>
+      </c>
+      <c r="P13">
+        <v>13.25934891059496</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.1573987101209</v>
+        <v>14.71002083407868</v>
       </c>
       <c r="C14">
-        <v>12.39834068270057</v>
+        <v>8.893475771060425</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.344294593093531</v>
+        <v>6.453357910395001</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>20.43660887764759</v>
+        <v>24.95991006958466</v>
       </c>
       <c r="H14">
-        <v>7.254126544128457</v>
+        <v>6.869694007407774</v>
       </c>
       <c r="I14">
-        <v>10.35283016048583</v>
+        <v>3.338394341326647</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.855074006063672</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.54350848286971</v>
       </c>
       <c r="L14">
-        <v>8.280787903301242</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.69544707999983</v>
       </c>
       <c r="N14">
-        <v>11.91130334502178</v>
+        <v>4.774617922421459</v>
       </c>
       <c r="O14">
-        <v>12.0664318011648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.958129287188672</v>
+      </c>
+      <c r="P14">
+        <v>13.30782578374239</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.02260146655204</v>
+        <v>14.56342524243327</v>
       </c>
       <c r="C15">
-        <v>12.3579708812829</v>
+        <v>8.897766398680549</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.339669918752087</v>
+        <v>6.48199366901608</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>20.34954656712081</v>
+        <v>24.66388899631106</v>
       </c>
       <c r="H15">
-        <v>7.253461300179423</v>
+        <v>7.098668855352476</v>
       </c>
       <c r="I15">
-        <v>10.36729445869209</v>
+        <v>3.363820956494666</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.81475196059565</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.46722790073466</v>
       </c>
       <c r="L15">
-        <v>8.24899735400014</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.60633687217622</v>
       </c>
       <c r="N15">
-        <v>11.91107985082398</v>
+        <v>4.721102207162549</v>
       </c>
       <c r="O15">
-        <v>12.04557827903174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.824788334056214</v>
+      </c>
+      <c r="P15">
+        <v>13.33291394284155</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.23615982488797</v>
+        <v>14.13680997406713</v>
       </c>
       <c r="C16">
-        <v>12.12407499131069</v>
+        <v>8.658618938436968</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.315157809283816</v>
+        <v>6.415749929292805</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>19.8539537820001</v>
+        <v>24.75912210210153</v>
       </c>
       <c r="H16">
-        <v>7.251924714046999</v>
+        <v>6.92048431051641</v>
       </c>
       <c r="I16">
-        <v>10.4550528832087</v>
+        <v>3.465087404038687</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.88710916937714</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.60495289172799</v>
       </c>
       <c r="L16">
-        <v>8.065585538843651</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.22737464260348</v>
       </c>
       <c r="N16">
-        <v>11.9111108411369</v>
+        <v>4.72967166716421</v>
       </c>
       <c r="O16">
-        <v>11.93059650217688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.712536032581381</v>
+      </c>
+      <c r="P16">
+        <v>13.43107459879091</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.74118940877251</v>
+        <v>14.02080643422337</v>
       </c>
       <c r="C17">
-        <v>11.97835284382192</v>
+        <v>8.418854561164935</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.301869089147928</v>
+        <v>6.308073290946998</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>19.55301709936277</v>
+        <v>25.45766261356536</v>
       </c>
       <c r="H17">
-        <v>7.25296300564011</v>
+        <v>6.240976287181319</v>
       </c>
       <c r="I17">
-        <v>10.51307139460563</v>
+        <v>3.517849265640222</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.0399019564757</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.89478726842276</v>
       </c>
       <c r="L17">
-        <v>7.952009582940827</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.04015562938996</v>
       </c>
       <c r="N17">
-        <v>11.91228149020126</v>
+        <v>4.865660702780366</v>
       </c>
       <c r="O17">
-        <v>11.8640488693332</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.889866457343132</v>
+      </c>
+      <c r="P17">
+        <v>13.48035758892942</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.45187893639527</v>
+        <v>14.17775647990658</v>
       </c>
       <c r="C18">
-        <v>11.89373423580524</v>
+        <v>8.146315109680502</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.29485744504677</v>
+        <v>6.294308593117144</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>19.38111488443666</v>
+        <v>26.8123960121943</v>
       </c>
       <c r="H18">
-        <v>7.254268536916722</v>
+        <v>5.098151441889481</v>
       </c>
       <c r="I18">
-        <v>10.54791567016651</v>
+        <v>3.522962560529647</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.29105863801118</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.38320485448234</v>
       </c>
       <c r="L18">
-        <v>7.886312079500686</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.00620774506571</v>
       </c>
       <c r="N18">
-        <v>11.91337064974574</v>
+        <v>5.203593197041044</v>
       </c>
       <c r="O18">
-        <v>11.82721997032812</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.344980259602274</v>
+      </c>
+      <c r="P18">
+        <v>13.51049345249982</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.35312882231149</v>
+        <v>14.50933797937318</v>
       </c>
       <c r="C19">
-        <v>11.8649477058685</v>
+        <v>7.901264406085772</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.292590855014561</v>
+        <v>6.561433584158547</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>19.32312097735582</v>
+        <v>28.53749382708558</v>
       </c>
       <c r="H19">
-        <v>7.254830364760595</v>
+        <v>3.810699301578085</v>
       </c>
       <c r="I19">
-        <v>10.55996059556606</v>
+        <v>3.503645313613445</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.59680831395119</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.99537283961697</v>
       </c>
       <c r="L19">
-        <v>7.864005961044739</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.09219632165201</v>
       </c>
       <c r="N19">
-        <v>11.91381014726739</v>
+        <v>5.769650746164653</v>
       </c>
       <c r="O19">
-        <v>11.81499706857678</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.983708623827146</v>
+      </c>
+      <c r="P19">
+        <v>13.54758268792645</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.79435725733131</v>
+        <v>15.34993063488489</v>
       </c>
       <c r="C20">
-        <v>11.99394875515447</v>
+        <v>7.709475899799653</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.303218069548222</v>
+        <v>7.482026559180892</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>19.58493050542205</v>
+        <v>31.35982834871763</v>
       </c>
       <c r="H20">
-        <v>7.252778725523888</v>
+        <v>2.605795273976999</v>
       </c>
       <c r="I20">
-        <v>10.50674132035436</v>
+        <v>3.38588942733085</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.06913145054198</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.97651340327661</v>
       </c>
       <c r="L20">
-        <v>7.964138808952001</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.51755402886661</v>
       </c>
       <c r="N20">
-        <v>11.91211367023769</v>
+        <v>6.850068937341426</v>
       </c>
       <c r="O20">
-        <v>11.87098272219361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.10161641244201</v>
+      </c>
+      <c r="P20">
+        <v>13.58873493129659</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.2217911249685</v>
+        <v>16.273525263282</v>
       </c>
       <c r="C21">
-        <v>12.41765335828781</v>
+        <v>8.056404048642602</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.346547826321932</v>
+        <v>7.773333910895801</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>20.47841475938786</v>
+        <v>32.16094922573922</v>
       </c>
       <c r="H21">
-        <v>7.254486501080653</v>
+        <v>2.356256635283125</v>
       </c>
       <c r="I21">
-        <v>10.34598262254913</v>
+        <v>3.19095355653536</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.1211925358126</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.09888345830934</v>
       </c>
       <c r="L21">
-        <v>8.296009970827381</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.25936713655141</v>
       </c>
       <c r="N21">
-        <v>11.91143398830786</v>
+        <v>7.146434024152826</v>
       </c>
       <c r="O21">
-        <v>12.07651220326142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.62240413375383</v>
+      </c>
+      <c r="P21">
+        <v>13.41015357818566</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.11397396640681</v>
+        <v>16.8426331114615</v>
       </c>
       <c r="C22">
-        <v>12.68705052146765</v>
+        <v>8.279020908898575</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.380719629587411</v>
+        <v>7.912495867897365</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>21.07188472326461</v>
+        <v>32.62505009702016</v>
       </c>
       <c r="H22">
-        <v>7.262328453413931</v>
+        <v>2.208833391024378</v>
       </c>
       <c r="I22">
-        <v>10.25541375530337</v>
+        <v>3.058300024932208</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.1466092008305</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.16002519578912</v>
       </c>
       <c r="L22">
-        <v>8.509246557814208</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.71873944921722</v>
       </c>
       <c r="N22">
-        <v>11.91485142918842</v>
+        <v>7.282798200874617</v>
       </c>
       <c r="O22">
-        <v>12.22410445355943</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>11.91220327757118</v>
+      </c>
+      <c r="P22">
+        <v>13.29101098525197</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.6415068339326</v>
+        <v>16.55796984235173</v>
       </c>
       <c r="C23">
-        <v>12.54397240835843</v>
+        <v>8.148530610031694</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.361935229983507</v>
+        <v>7.842520282619887</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>20.75431457538534</v>
+        <v>32.43742114219121</v>
       </c>
       <c r="H23">
-        <v>7.257507358229192</v>
+        <v>2.28603559141106</v>
       </c>
       <c r="I23">
-        <v>10.30235645290916</v>
+        <v>3.117634852168962</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.14399638557868</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.15232096845941</v>
       </c>
       <c r="L23">
-        <v>8.395788488065708</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.47964982738307</v>
       </c>
       <c r="N23">
-        <v>11.91266631087771</v>
+        <v>7.208728378927059</v>
       </c>
       <c r="O23">
-        <v>12.14410130007268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.76339943216735</v>
+      </c>
+      <c r="P23">
+        <v>13.35780144634135</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.770334858002</v>
+        <v>15.40384833731523</v>
       </c>
       <c r="C24">
-        <v>11.98690045891183</v>
+        <v>7.662273633766022</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.302606241331562</v>
+        <v>7.564886092994004</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>19.57049898400092</v>
+        <v>31.64497579398007</v>
       </c>
       <c r="H24">
-        <v>7.252859836056906</v>
+        <v>2.586532172873813</v>
       </c>
       <c r="I24">
-        <v>10.50959852496808</v>
+        <v>3.366876383845318</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.1222689931374</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.09035303122852</v>
       </c>
       <c r="L24">
-        <v>7.958656431322314</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.52704572617502</v>
       </c>
       <c r="N24">
-        <v>11.91218824720887</v>
+        <v>6.924539151756201</v>
       </c>
       <c r="O24">
-        <v>11.86784347691108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.17462404297344</v>
+      </c>
+      <c r="P24">
+        <v>13.60703615741779</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.57526306497099</v>
+        <v>14.05439673420378</v>
       </c>
       <c r="C25">
-        <v>11.35559716834141</v>
+        <v>7.112702565903405</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.262607388105789</v>
+        <v>7.252491710742924</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>18.33976977457025</v>
+        <v>30.8267755342991</v>
       </c>
       <c r="H25">
-        <v>7.274683220796588</v>
+        <v>2.924468925012897</v>
       </c>
       <c r="I25">
-        <v>10.78879708678786</v>
+        <v>3.649625257536156</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.11210783315147</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.04097257852698</v>
       </c>
       <c r="L25">
-        <v>7.473221054404276</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.41281601216588</v>
       </c>
       <c r="N25">
-        <v>11.92748300588845</v>
+        <v>6.605594569018054</v>
       </c>
       <c r="O25">
-        <v>11.62487969236212</v>
+        <v>10.50528821398511</v>
+      </c>
+      <c r="P25">
+        <v>13.87974543304932</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_31/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.02159591461674</v>
+        <v>12.53604581375588</v>
       </c>
       <c r="C2">
-        <v>6.65190047772323</v>
+        <v>6.608196951194441</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.022559659086765</v>
+        <v>6.975146341918209</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>30.27884324296192</v>
       </c>
       <c r="G2">
-        <v>30.41461370006239</v>
+        <v>28.29603870240538</v>
       </c>
       <c r="H2">
-        <v>3.182466359280599</v>
+        <v>3.008756753522502</v>
       </c>
       <c r="I2">
-        <v>3.84549290340967</v>
+        <v>3.630236516192801</v>
       </c>
       <c r="J2">
-        <v>11.14330964088859</v>
+        <v>10.85173129143575</v>
       </c>
       <c r="K2">
-        <v>18.08177073171268</v>
+        <v>17.09017523653831</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.54155978364099</v>
       </c>
       <c r="M2">
-        <v>10.52978473789143</v>
+        <v>11.73306468079592</v>
       </c>
       <c r="N2">
-        <v>6.357019507818289</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.999717614796785</v>
+        <v>10.50755165843001</v>
       </c>
       <c r="P2">
-        <v>14.09392159563763</v>
+        <v>6.537665507527472</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.844431858251742</v>
+      </c>
+      <c r="R2">
+        <v>13.80589179011223</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.24025263253131</v>
+        <v>11.79278495299877</v>
       </c>
       <c r="C3">
-        <v>6.34497832652089</v>
+        <v>6.242245331816882</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.85402746352433</v>
+        <v>6.827659195297879</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>28.16301984326746</v>
       </c>
       <c r="G3">
-        <v>30.06506646406061</v>
+        <v>28.14303961841472</v>
       </c>
       <c r="H3">
-        <v>3.367292118625746</v>
+        <v>3.177812693774393</v>
       </c>
       <c r="I3">
-        <v>3.999403485991471</v>
+        <v>3.764699468111283</v>
       </c>
       <c r="J3">
-        <v>11.15456755780813</v>
+        <v>10.84637529498844</v>
       </c>
       <c r="K3">
-        <v>18.08127864163379</v>
+        <v>17.13962478680394</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.65736413069442</v>
       </c>
       <c r="M3">
-        <v>9.877635448682573</v>
+        <v>11.7252444339162</v>
       </c>
       <c r="N3">
-        <v>6.18545576116303</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.634167720839855</v>
+        <v>9.87661065225406</v>
       </c>
       <c r="P3">
-        <v>14.23662254807716</v>
+        <v>6.37173259590595</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.490418322013754</v>
+      </c>
+      <c r="R3">
+        <v>13.94369715532634</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.73307647601326</v>
+        <v>11.30894721989952</v>
       </c>
       <c r="C4">
-        <v>6.150596464827846</v>
+        <v>6.009689791705015</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.747153482182862</v>
+        <v>6.734146149465118</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>29.85706729018473</v>
+        <v>28.05773652795136</v>
       </c>
       <c r="H4">
-        <v>3.484952226182466</v>
+        <v>3.285500074126396</v>
       </c>
       <c r="I4">
-        <v>4.098035686181633</v>
+        <v>3.851192806236085</v>
       </c>
       <c r="J4">
-        <v>11.16389082575324</v>
+        <v>10.84357034487302</v>
       </c>
       <c r="K4">
-        <v>18.08362464402915</v>
+        <v>17.17156663639107</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.72835778829326</v>
       </c>
       <c r="M4">
-        <v>9.453824311929319</v>
+        <v>11.73568228686363</v>
       </c>
       <c r="N4">
-        <v>6.077752341841588</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.402652962343289</v>
+        <v>9.466730002775909</v>
       </c>
       <c r="P4">
-        <v>14.32546674772809</v>
+        <v>6.267940194691481</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.265926420730361</v>
+      </c>
+      <c r="R4">
+        <v>14.02979928513012</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.51370149510887</v>
+        <v>11.09920391714956</v>
       </c>
       <c r="C5">
-        <v>6.073797715936639</v>
+        <v>5.917345994070764</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.7015342050068</v>
+        <v>6.694167010645161</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>29.75689406807382</v>
+        <v>28.0089765909383</v>
       </c>
       <c r="H5">
-        <v>3.534351345802652</v>
+        <v>3.330737510001028</v>
       </c>
       <c r="I5">
-        <v>4.141783345495216</v>
+        <v>3.890346185628832</v>
       </c>
       <c r="J5">
-        <v>11.1653003830684</v>
+        <v>10.83963881078262</v>
       </c>
       <c r="K5">
-        <v>18.07851587682581</v>
+        <v>17.17875271396725</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.75135200115492</v>
       </c>
       <c r="M5">
-        <v>9.273774505446635</v>
+        <v>11.74027225783179</v>
       </c>
       <c r="N5">
-        <v>6.033737999416767</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.305055039381337</v>
+        <v>9.292672242046264</v>
       </c>
       <c r="P5">
-        <v>14.36086935430052</v>
+        <v>6.225610294420703</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.171226633743744</v>
+      </c>
+      <c r="R5">
+        <v>14.06439702427869</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.46965685720261</v>
+        <v>11.0569631797224</v>
       </c>
       <c r="C6">
-        <v>6.065722737085355</v>
+        <v>5.907242158732681</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.692407191289174</v>
+        <v>6.686091508735902</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>29.7194709087384</v>
+        <v>27.98134366101712</v>
       </c>
       <c r="H6">
-        <v>3.543091696020351</v>
+        <v>3.338754370254157</v>
       </c>
       <c r="I6">
-        <v>4.15230812761403</v>
+        <v>3.900638580843947</v>
       </c>
       <c r="J6">
-        <v>11.16192503771791</v>
+        <v>10.8354404996464</v>
       </c>
       <c r="K6">
-        <v>18.0695020722299</v>
+        <v>17.17238025027221</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.74795950844011</v>
       </c>
       <c r="M6">
-        <v>9.241719707132217</v>
+        <v>11.73699946094722</v>
       </c>
       <c r="N6">
-        <v>6.026926312159993</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.286805316351385</v>
+        <v>9.261720669141827</v>
       </c>
       <c r="P6">
-        <v>14.36540394096019</v>
+        <v>6.21905458668394</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.153528355447818</v>
+      </c>
+      <c r="R6">
+        <v>14.06910792623011</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.71088036209207</v>
+        <v>11.28248013736743</v>
       </c>
       <c r="C7">
-        <v>6.162391180852151</v>
+        <v>6.013828555768439</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.742488302372686</v>
+        <v>6.731436179161772</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>29.7989174091222</v>
+        <v>28.05742125329319</v>
       </c>
       <c r="H7">
-        <v>3.486884634959387</v>
+        <v>3.287939649852072</v>
       </c>
       <c r="I7">
-        <v>4.107083212454087</v>
+        <v>3.862251231955547</v>
       </c>
       <c r="J7">
-        <v>11.15397917409552</v>
+        <v>10.79742407462017</v>
       </c>
       <c r="K7">
-        <v>18.06119581511375</v>
+        <v>17.14151169799693</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.70058969104907</v>
       </c>
       <c r="M7">
-        <v>9.446598370049712</v>
+        <v>11.71812861178632</v>
       </c>
       <c r="N7">
-        <v>6.078602246189496</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.396093937888093</v>
+        <v>9.452768872571649</v>
       </c>
       <c r="P7">
-        <v>14.3222879026979</v>
+        <v>6.268064303106896</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.257544541137998</v>
+      </c>
+      <c r="R7">
+        <v>14.02608241876334</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.7342487290716</v>
+        <v>12.24725275272639</v>
       </c>
       <c r="C8">
-        <v>6.56346634082812</v>
+        <v>6.473507922515342</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.960014532395084</v>
+        <v>6.925399467452932</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>30.21894348780461</v>
+        <v>28.35047012782994</v>
       </c>
       <c r="H8">
-        <v>3.246925063314003</v>
+        <v>3.069712612806835</v>
       </c>
       <c r="I8">
-        <v>3.908437527932018</v>
+        <v>3.690380377207393</v>
       </c>
       <c r="J8">
-        <v>11.13367130184125</v>
+        <v>10.71870106560918</v>
       </c>
       <c r="K8">
-        <v>18.05172819099937</v>
+        <v>17.04902216180099</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.53115223307148</v>
       </c>
       <c r="M8">
-        <v>10.30384714553086</v>
+        <v>11.68941472368291</v>
       </c>
       <c r="N8">
-        <v>6.300261959293034</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.868566560289374</v>
+        <v>10.26725375851588</v>
       </c>
       <c r="P8">
-        <v>14.13835405631468</v>
+        <v>6.480569707188395</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.710991548726206</v>
+      </c>
+      <c r="R8">
+        <v>13.84583206314421</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.5514270320122</v>
+        <v>13.96770503362208</v>
       </c>
       <c r="C9">
-        <v>7.281037107575446</v>
+        <v>7.320702988980334</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.365953160957956</v>
+        <v>7.282344618221553</v>
       </c>
       <c r="F9">
         <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>31.19390450412819</v>
+        <v>28.89225452868057</v>
       </c>
       <c r="H9">
-        <v>2.80675579157797</v>
+        <v>2.667781638118454</v>
       </c>
       <c r="I9">
-        <v>3.537337626421412</v>
+        <v>3.36562805135211</v>
       </c>
       <c r="J9">
-        <v>11.13118903549618</v>
+        <v>10.71495895767946</v>
       </c>
       <c r="K9">
-        <v>18.09446487196094</v>
+        <v>16.95148282972874</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.26087406967527</v>
       </c>
       <c r="M9">
-        <v>11.80696918670402</v>
+        <v>11.79861784391773</v>
       </c>
       <c r="N9">
-        <v>6.712118552666624</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.74345761856424</v>
+        <v>11.71886400335482</v>
       </c>
       <c r="P9">
-        <v>13.79280518533218</v>
+        <v>6.880545845202761</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.55561571021874</v>
+      </c>
+      <c r="R9">
+        <v>13.51302658060766</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.68940037431886</v>
+        <v>15.02300927128444</v>
       </c>
       <c r="C10">
-        <v>7.811465526318083</v>
+        <v>7.891480632526782</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.543352288431945</v>
+        <v>7.439661390116227</v>
       </c>
       <c r="F10">
         <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>31.66003835421234</v>
+        <v>29.39966644163924</v>
       </c>
       <c r="H10">
-        <v>2.531520957141446</v>
+        <v>2.421936012923501</v>
       </c>
       <c r="I10">
-        <v>3.295075118698062</v>
+        <v>3.159730845172375</v>
       </c>
       <c r="J10">
-        <v>11.09140914962541</v>
+        <v>10.47654959602557</v>
       </c>
       <c r="K10">
-        <v>18.03244289823733</v>
+        <v>16.74858532973904</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.95859806080868</v>
       </c>
       <c r="M10">
-        <v>12.77777724998926</v>
+        <v>11.84036810131367</v>
       </c>
       <c r="N10">
-        <v>6.89895370196562</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.25027748681281</v>
+        <v>12.62619803358133</v>
       </c>
       <c r="P10">
-        <v>13.52932270104614</v>
+        <v>7.056921090366839</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.03300793448316</v>
+      </c>
+      <c r="R10">
+        <v>13.26381988204906</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.70657585154012</v>
+        <v>15.03970222557476</v>
       </c>
       <c r="C11">
-        <v>8.304024376691759</v>
+        <v>8.297795900767614</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.883141494914049</v>
+        <v>6.816598067297774</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>29.60843071919787</v>
+        <v>28.17123396415846</v>
       </c>
       <c r="H11">
-        <v>3.326177317713605</v>
+        <v>3.251121635917047</v>
       </c>
       <c r="I11">
-        <v>3.255082355479531</v>
+        <v>3.135951057025756</v>
       </c>
       <c r="J11">
-        <v>10.66615203508081</v>
+        <v>9.773300681605859</v>
       </c>
       <c r="K11">
-        <v>17.15424394999731</v>
+        <v>15.8927939960398</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.28274348572975</v>
       </c>
       <c r="M11">
-        <v>13.03037328521721</v>
+        <v>11.24585569178416</v>
       </c>
       <c r="N11">
-        <v>6.147333857069913</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.67704334663297</v>
+        <v>12.81756255407469</v>
       </c>
       <c r="P11">
-        <v>13.32519697162429</v>
+        <v>6.29055324679087</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.45285571656181</v>
+      </c>
+      <c r="R11">
+        <v>13.1305480632531</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.50720048251508</v>
+        <v>14.87076643652978</v>
       </c>
       <c r="C12">
-        <v>8.605055208019563</v>
+        <v>8.534731133596265</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.523132603459008</v>
+        <v>6.476664831615814</v>
       </c>
       <c r="F12">
         <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>27.85864795675553</v>
+        <v>26.89211280409938</v>
       </c>
       <c r="H12">
-        <v>4.556805474870251</v>
+        <v>4.502557449209532</v>
       </c>
       <c r="I12">
-        <v>3.251537554302879</v>
+        <v>3.134561476155594</v>
       </c>
       <c r="J12">
-        <v>10.33479795811095</v>
+        <v>9.408478523015612</v>
       </c>
       <c r="K12">
-        <v>16.48348378829099</v>
+        <v>15.30755618140407</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.861102278436</v>
       </c>
       <c r="M12">
-        <v>13.05199105295237</v>
+        <v>10.79127719031613</v>
       </c>
       <c r="N12">
-        <v>5.545387263933049</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.09137369204229</v>
+        <v>12.81933166906124</v>
       </c>
       <c r="P12">
-        <v>13.24944128970779</v>
+        <v>5.679938392573</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.873994161002384</v>
+      </c>
+      <c r="R12">
+        <v>13.11225743298456</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.09984382010221</v>
+        <v>14.53124423264473</v>
       </c>
       <c r="C13">
-        <v>8.799131843637808</v>
+        <v>8.700638762918794</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.395486253349596</v>
+        <v>6.36381247834729</v>
       </c>
       <c r="F13">
         <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>26.14534481838344</v>
+        <v>25.28444865578409</v>
       </c>
       <c r="H13">
-        <v>5.898195581398941</v>
+        <v>5.852831823143889</v>
       </c>
       <c r="I13">
-        <v>3.289981318219026</v>
+        <v>3.165931953727187</v>
       </c>
       <c r="J13">
-        <v>10.04183553076064</v>
+        <v>9.267105612594689</v>
       </c>
       <c r="K13">
-        <v>15.90326928139553</v>
+        <v>14.87691302961063</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.57543056184146</v>
       </c>
       <c r="M13">
-        <v>12.89234011288577</v>
+        <v>10.41657543637115</v>
       </c>
       <c r="N13">
-        <v>5.045498453294321</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.443697817449594</v>
+        <v>12.68400740405117</v>
       </c>
       <c r="P13">
-        <v>13.25934891059496</v>
+        <v>5.176564321251368</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.248142523479865</v>
+      </c>
+      <c r="R13">
+        <v>13.16224575910092</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.71002083407868</v>
+        <v>14.20651004922387</v>
       </c>
       <c r="C14">
-        <v>8.893475771060425</v>
+        <v>8.791734113980489</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.453357910395001</v>
+        <v>6.434035689972598</v>
       </c>
       <c r="F14">
         <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>24.95991006958466</v>
+        <v>24.02593352439713</v>
       </c>
       <c r="H14">
-        <v>6.869694007407774</v>
+        <v>6.827149453122315</v>
       </c>
       <c r="I14">
-        <v>3.338394341326647</v>
+        <v>3.205842121264019</v>
       </c>
       <c r="J14">
-        <v>9.855074006063672</v>
+        <v>9.244149905624974</v>
       </c>
       <c r="K14">
-        <v>15.54350848286971</v>
+        <v>14.6413096245386</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.4269976781653</v>
       </c>
       <c r="M14">
-        <v>12.69544707999983</v>
+        <v>10.19354405709737</v>
       </c>
       <c r="N14">
-        <v>4.774617922421459</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.958129287188672</v>
+        <v>12.52395625394651</v>
       </c>
       <c r="P14">
-        <v>13.30782578374239</v>
+        <v>4.905108921214854</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.784129029950304</v>
+      </c>
+      <c r="R14">
+        <v>13.22559726913886</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.56342524243327</v>
+        <v>14.0833748107335</v>
       </c>
       <c r="C15">
-        <v>8.897766398680549</v>
+        <v>8.802964601738038</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.48199366901608</v>
+        <v>6.467998469898091</v>
       </c>
       <c r="F15">
         <v>38.96319309123412</v>
       </c>
       <c r="G15">
-        <v>24.66388899631106</v>
+        <v>23.65552503061758</v>
       </c>
       <c r="H15">
-        <v>7.098668855352476</v>
+        <v>7.055840132471792</v>
       </c>
       <c r="I15">
-        <v>3.363820956494666</v>
+        <v>3.22793937413246</v>
       </c>
       <c r="J15">
-        <v>9.81475196059565</v>
+        <v>9.268397312720003</v>
       </c>
       <c r="K15">
-        <v>15.46722790073466</v>
+        <v>14.60418128902588</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.40598291332784</v>
       </c>
       <c r="M15">
-        <v>12.60633687217622</v>
+        <v>10.15072609499446</v>
       </c>
       <c r="N15">
-        <v>4.721102207162549</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.824788334056214</v>
+        <v>12.45248228228142</v>
       </c>
       <c r="P15">
-        <v>13.33291394284155</v>
+        <v>4.852478163301965</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.65872820581995</v>
+      </c>
+      <c r="R15">
+        <v>13.24980272860639</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.13680997406713</v>
+        <v>13.71754978831106</v>
       </c>
       <c r="C16">
-        <v>8.658618938436968</v>
+        <v>8.626224945564456</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.415749929292805</v>
+        <v>6.421212086442714</v>
       </c>
       <c r="F16">
         <v>37.63463543028812</v>
       </c>
       <c r="G16">
-        <v>24.75912210210153</v>
+        <v>23.30037294116461</v>
       </c>
       <c r="H16">
-        <v>6.92048431051641</v>
+        <v>6.868458924350061</v>
       </c>
       <c r="I16">
-        <v>3.465087404038687</v>
+        <v>3.311604413862844</v>
       </c>
       <c r="J16">
-        <v>9.88710916937714</v>
+        <v>9.567600100319112</v>
       </c>
       <c r="K16">
-        <v>15.60495289172799</v>
+        <v>14.81705857709907</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.56890320282783</v>
       </c>
       <c r="M16">
-        <v>12.22737464260348</v>
+        <v>10.27651101055283</v>
       </c>
       <c r="N16">
-        <v>4.72967166716421</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.712536032581381</v>
+        <v>12.14574733734097</v>
       </c>
       <c r="P16">
-        <v>13.43107459879091</v>
+        <v>4.871820613407494</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.568662247941655</v>
+      </c>
+      <c r="R16">
+        <v>13.31439408820863</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.02080643422337</v>
+        <v>13.60633762015331</v>
       </c>
       <c r="C17">
-        <v>8.418854561164935</v>
+        <v>8.422902509038009</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.308073290946998</v>
+        <v>6.314582890247661</v>
       </c>
       <c r="F17">
         <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>25.45766261356536</v>
+        <v>23.75186145502095</v>
       </c>
       <c r="H17">
-        <v>6.240976287181319</v>
+        <v>6.178661814762466</v>
       </c>
       <c r="I17">
-        <v>3.517849265640222</v>
+        <v>3.356159205062823</v>
       </c>
       <c r="J17">
-        <v>10.0399019564757</v>
+        <v>9.805218173552376</v>
       </c>
       <c r="K17">
-        <v>15.89478726842276</v>
+        <v>15.09952152136068</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.78187065994514</v>
       </c>
       <c r="M17">
-        <v>12.04015562938996</v>
+        <v>10.4770148574469</v>
       </c>
       <c r="N17">
-        <v>4.865660702780366</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.889866457343132</v>
+        <v>11.98567283371245</v>
       </c>
       <c r="P17">
-        <v>13.48035758892942</v>
+        <v>5.01609122248153</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.749599060008908</v>
+      </c>
+      <c r="R17">
+        <v>13.33864767034494</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.17775647990658</v>
+        <v>13.72821790923645</v>
       </c>
       <c r="C18">
-        <v>8.146315109680502</v>
+        <v>8.182527309190704</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.294308593117144</v>
+        <v>6.283041520216242</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>26.8123960121943</v>
+        <v>24.87436321427713</v>
       </c>
       <c r="H18">
-        <v>5.098151441889481</v>
+        <v>5.020691933898418</v>
       </c>
       <c r="I18">
-        <v>3.522962560529647</v>
+        <v>3.357957619888873</v>
       </c>
       <c r="J18">
-        <v>10.29105863801118</v>
+        <v>10.06634833963367</v>
       </c>
       <c r="K18">
-        <v>16.38320485448234</v>
+        <v>15.51986453894518</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.10021122094109</v>
       </c>
       <c r="M18">
-        <v>12.00620774506571</v>
+        <v>10.79250229623254</v>
       </c>
       <c r="N18">
-        <v>5.203593197041044</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.344980259602274</v>
+        <v>11.95404632985728</v>
       </c>
       <c r="P18">
-        <v>13.51049345249982</v>
+        <v>5.360598606655896</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.196128368053474</v>
+      </c>
+      <c r="R18">
+        <v>13.34112255545062</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.50933797937318</v>
+        <v>14.0008896250289</v>
       </c>
       <c r="C19">
-        <v>7.901264406085772</v>
+        <v>7.968810298358902</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.561433584158547</v>
+        <v>6.51653773521986</v>
       </c>
       <c r="F19">
         <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>28.53749382708558</v>
+        <v>26.35291994995045</v>
       </c>
       <c r="H19">
-        <v>3.810699301578085</v>
+        <v>3.71097866552944</v>
       </c>
       <c r="I19">
-        <v>3.503645313613445</v>
+        <v>3.342979022140625</v>
       </c>
       <c r="J19">
-        <v>10.59680831395119</v>
+        <v>10.33877522274727</v>
       </c>
       <c r="K19">
-        <v>16.99537283961697</v>
+        <v>16.02316537116199</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.48155817404473</v>
       </c>
       <c r="M19">
-        <v>12.09219632165201</v>
+        <v>11.17825647768003</v>
       </c>
       <c r="N19">
-        <v>5.769650746164653</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.983708623827146</v>
+        <v>12.02756651107619</v>
       </c>
       <c r="P19">
-        <v>13.54758268792645</v>
+        <v>5.930872143521233</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.818583923642594</v>
+      </c>
+      <c r="R19">
+        <v>13.34471760779098</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.34993063488489</v>
+        <v>14.72104287373836</v>
       </c>
       <c r="C20">
-        <v>7.709475899799653</v>
+        <v>7.808920908868878</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.482026559180892</v>
+        <v>7.379177482539349</v>
       </c>
       <c r="F20">
         <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>31.35982834871763</v>
+        <v>28.90779210552272</v>
       </c>
       <c r="H20">
-        <v>2.605795273976999</v>
+        <v>2.48645078791663</v>
       </c>
       <c r="I20">
-        <v>3.38588942733085</v>
+        <v>3.244161773432361</v>
       </c>
       <c r="J20">
-        <v>11.06913145054198</v>
+        <v>10.63082313328647</v>
       </c>
       <c r="K20">
-        <v>17.97651340327661</v>
+        <v>16.7699252229017</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.01340827889884</v>
       </c>
       <c r="M20">
-        <v>12.51755402886661</v>
+        <v>11.80135108162388</v>
       </c>
       <c r="N20">
-        <v>6.850068937341426</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>11.10161641244201</v>
+        <v>12.40272642907094</v>
       </c>
       <c r="P20">
-        <v>13.58873493129659</v>
+        <v>7.012460543760943</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.89897843610195</v>
+      </c>
+      <c r="R20">
+        <v>13.32613081041835</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.273525263282</v>
+        <v>15.4979744529249</v>
       </c>
       <c r="C21">
-        <v>8.056404048642602</v>
+        <v>8.054810084931734</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.773333910895801</v>
+        <v>7.678782496135117</v>
       </c>
       <c r="F21">
         <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>32.16094922573922</v>
+        <v>30.71010953261555</v>
       </c>
       <c r="H21">
-        <v>2.356256635283125</v>
+        <v>2.268662304826618</v>
       </c>
       <c r="I21">
-        <v>3.19095355653536</v>
+        <v>3.086798318738846</v>
       </c>
       <c r="J21">
-        <v>11.1211925358126</v>
+        <v>9.927586579993983</v>
       </c>
       <c r="K21">
-        <v>18.09888345830934</v>
+        <v>16.58360420142672</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.76551499613667</v>
       </c>
       <c r="M21">
-        <v>13.25936713655141</v>
+        <v>11.82113444026907</v>
       </c>
       <c r="N21">
-        <v>7.146434024152826</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.62240413375383</v>
+        <v>12.99325372454149</v>
       </c>
       <c r="P21">
-        <v>13.41015357818566</v>
+        <v>7.292296242093429</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.36083134979494</v>
+      </c>
+      <c r="R21">
+        <v>13.1356445193672</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.8426331114615</v>
+        <v>15.97865772958053</v>
       </c>
       <c r="C22">
-        <v>8.279020908898575</v>
+        <v>8.204781257102089</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.912495867897365</v>
+        <v>7.829855372905506</v>
       </c>
       <c r="F22">
         <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>32.62505009702016</v>
+        <v>31.95000241490396</v>
       </c>
       <c r="H22">
-        <v>2.208833391024378</v>
+        <v>2.141508376921445</v>
       </c>
       <c r="I22">
-        <v>3.058300024932208</v>
+        <v>2.975848000224245</v>
       </c>
       <c r="J22">
-        <v>11.1466092008305</v>
+        <v>9.482292236329341</v>
       </c>
       <c r="K22">
-        <v>18.16002519578912</v>
+        <v>16.43394251419017</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.58762059181409</v>
       </c>
       <c r="M22">
-        <v>13.71873944921722</v>
+        <v>11.81818583162776</v>
       </c>
       <c r="N22">
-        <v>7.282798200874617</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.91220327757118</v>
+        <v>13.35219525642993</v>
       </c>
       <c r="P22">
-        <v>13.29101098525197</v>
+        <v>7.417689868320528</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.61157837421677</v>
+      </c>
+      <c r="R22">
+        <v>13.01255948314809</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.55796984235173</v>
+        <v>15.74738610347666</v>
       </c>
       <c r="C23">
-        <v>8.148530610031694</v>
+        <v>8.129631966724887</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.842520282619887</v>
+        <v>7.748623513517808</v>
       </c>
       <c r="F23">
         <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>32.43742114219121</v>
+        <v>31.19868832439387</v>
       </c>
       <c r="H23">
-        <v>2.28603559141106</v>
+        <v>2.206939252688841</v>
       </c>
       <c r="I23">
-        <v>3.117634852168962</v>
+        <v>3.020512527071683</v>
       </c>
       <c r="J23">
-        <v>11.14399638557868</v>
+        <v>9.79151710286018</v>
       </c>
       <c r="K23">
-        <v>18.15232096845941</v>
+        <v>16.55918057510328</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.7136784016875</v>
       </c>
       <c r="M23">
-        <v>13.47964982738307</v>
+        <v>11.85658515565104</v>
       </c>
       <c r="N23">
-        <v>7.208728378927059</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.76339943216735</v>
+        <v>13.17987962807467</v>
       </c>
       <c r="P23">
-        <v>13.35780144634135</v>
+        <v>7.350815714693095</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.48783365569033</v>
+      </c>
+      <c r="R23">
+        <v>13.08059084462083</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.40384833731523</v>
+        <v>14.76883843813079</v>
       </c>
       <c r="C24">
-        <v>7.662273633766022</v>
+        <v>7.762415975576599</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.564886092994004</v>
+        <v>7.457910417019503</v>
       </c>
       <c r="F24">
         <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>31.64497579398007</v>
+        <v>29.1549460517876</v>
       </c>
       <c r="H24">
-        <v>2.586532172873813</v>
+        <v>2.467254383072415</v>
       </c>
       <c r="I24">
-        <v>3.366876383845318</v>
+        <v>3.222238501649721</v>
       </c>
       <c r="J24">
-        <v>11.1222689931374</v>
+        <v>10.68279055932676</v>
       </c>
       <c r="K24">
-        <v>18.09035303122852</v>
+        <v>16.86847297604799</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.08891300782377</v>
       </c>
       <c r="M24">
-        <v>12.52704572617502</v>
+        <v>11.87569924606673</v>
       </c>
       <c r="N24">
-        <v>6.924539151756201</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11.17462404297344</v>
+        <v>12.4115205282229</v>
       </c>
       <c r="P24">
-        <v>13.60703615741779</v>
+        <v>7.087592070607231</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.97022468455146</v>
+      </c>
+      <c r="R24">
+        <v>13.33684796532247</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.05439673420378</v>
+        <v>13.50363087533245</v>
       </c>
       <c r="C25">
-        <v>7.112702565903405</v>
+        <v>7.132526756837889</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.252491710742924</v>
+        <v>7.18000654778872</v>
       </c>
       <c r="F25">
         <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>30.8267755342991</v>
+        <v>28.56918037673726</v>
       </c>
       <c r="H25">
-        <v>2.924468925012897</v>
+        <v>2.774446247784287</v>
       </c>
       <c r="I25">
-        <v>3.649625257536156</v>
+        <v>3.467347839221222</v>
       </c>
       <c r="J25">
-        <v>11.11210783315147</v>
+        <v>10.74925812549679</v>
       </c>
       <c r="K25">
-        <v>18.04097257852698</v>
+        <v>16.95381687220903</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.31612904094618</v>
       </c>
       <c r="M25">
-        <v>11.41281601216588</v>
+        <v>11.73969314393424</v>
       </c>
       <c r="N25">
-        <v>6.605594569018054</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.50528821398511</v>
+        <v>11.34688383285757</v>
       </c>
       <c r="P25">
-        <v>13.87974543304932</v>
+        <v>6.777603237793821</v>
       </c>
       <c r="Q25">
+        <v>10.32860452747166</v>
+      </c>
+      <c r="R25">
+        <v>13.59975690661438</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
